--- a/Data/Workbooks/4_best_matches_lemma.xlsx
+++ b/Data/Workbooks/4_best_matches_lemma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lynko\Desktop\Thesis\Data\Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5767E1BA-96C8-484D-A312-FE50DEE00438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FD71CD-2335-4F1E-8676-F27A97396E9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -634,14 +634,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F213" sqref="F213"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="42.85546875" customWidth="1"/>
     <col min="6" max="6" width="43.140625" customWidth="1"/>
+    <col min="9" max="9" width="37.42578125" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -719,7 +722,7 @@
       <c r="H2">
         <v>414</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J2">
@@ -728,7 +731,7 @@
       <c r="K2">
         <v>305</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="M2">
@@ -737,7 +740,7 @@
       <c r="N2">
         <v>203</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="P2">
@@ -769,7 +772,7 @@
       <c r="H3">
         <v>414</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J3">
@@ -778,7 +781,7 @@
       <c r="K3">
         <v>606</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="M3">
@@ -787,7 +790,7 @@
       <c r="N3">
         <v>409</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="P3">
@@ -819,7 +822,7 @@
       <c r="H4">
         <v>414</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J4">
@@ -828,7 +831,7 @@
       <c r="K4">
         <v>409</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4">
@@ -837,7 +840,7 @@
       <c r="N4">
         <v>416</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="P4">
@@ -869,7 +872,7 @@
       <c r="H5">
         <v>109</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J5">
@@ -878,7 +881,7 @@
       <c r="K5">
         <v>203</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="M5">
@@ -887,7 +890,7 @@
       <c r="N5">
         <v>301</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P5">
@@ -919,7 +922,7 @@
       <c r="H6">
         <v>602</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="J6">
@@ -928,7 +931,7 @@
       <c r="K6">
         <v>409</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M6">
@@ -937,7 +940,7 @@
       <c r="N6">
         <v>411</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="P6">
@@ -969,7 +972,7 @@
       <c r="H7">
         <v>404</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J7">
@@ -978,7 +981,7 @@
       <c r="K7">
         <v>608</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M7">
@@ -987,7 +990,7 @@
       <c r="N7">
         <v>203</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="P7">
@@ -1019,7 +1022,7 @@
       <c r="H8">
         <v>410</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J8">
@@ -1028,7 +1031,7 @@
       <c r="K8">
         <v>414</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="M8">
@@ -1037,7 +1040,7 @@
       <c r="N8">
         <v>203</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="P8">
@@ -1069,7 +1072,7 @@
       <c r="H9">
         <v>701</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="J9">
@@ -1078,7 +1081,7 @@
       <c r="K9">
         <v>401</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="M9">
@@ -1087,7 +1090,7 @@
       <c r="N9">
         <v>403</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="P9">
@@ -1119,7 +1122,7 @@
       <c r="H10">
         <v>703</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="J10">
@@ -1128,7 +1131,7 @@
       <c r="K10">
         <v>302</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="M10">
@@ -1137,7 +1140,7 @@
       <c r="N10">
         <v>301</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P10">
@@ -1169,7 +1172,7 @@
       <c r="H11">
         <v>705</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J11">
@@ -1178,7 +1181,7 @@
       <c r="K11">
         <v>606</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M11">
@@ -1187,7 +1190,7 @@
       <c r="N11">
         <v>104</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P11">
@@ -1219,7 +1222,7 @@
       <c r="H12">
         <v>608</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J12">
@@ -1228,7 +1231,7 @@
       <c r="K12">
         <v>607</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="2" t="s">
         <v>45</v>
       </c>
       <c r="M12">
@@ -1237,7 +1240,7 @@
       <c r="N12">
         <v>603</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="3" t="s">
         <v>46</v>
       </c>
       <c r="P12">
@@ -1269,7 +1272,7 @@
       <c r="H13">
         <v>604</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="2" t="s">
         <v>47</v>
       </c>
       <c r="J13">
@@ -1278,7 +1281,7 @@
       <c r="K13">
         <v>607</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="M13">
@@ -1287,7 +1290,7 @@
       <c r="N13">
         <v>603</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="3" t="s">
         <v>46</v>
       </c>
       <c r="P13">
@@ -1319,7 +1322,7 @@
       <c r="H14">
         <v>404</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J14">
@@ -1328,7 +1331,7 @@
       <c r="K14">
         <v>109</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M14">
@@ -1337,7 +1340,7 @@
       <c r="N14">
         <v>706</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="P14">
@@ -1369,7 +1372,7 @@
       <c r="H15">
         <v>608</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J15">
@@ -1378,7 +1381,7 @@
       <c r="K15">
         <v>603</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="3" t="s">
         <v>46</v>
       </c>
       <c r="M15">
@@ -1387,7 +1390,7 @@
       <c r="N15">
         <v>607</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="3" t="s">
         <v>45</v>
       </c>
       <c r="P15">
@@ -1419,7 +1422,7 @@
       <c r="H16">
         <v>201</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J16">
@@ -1428,7 +1431,7 @@
       <c r="K16">
         <v>304</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="3" t="s">
         <v>50</v>
       </c>
       <c r="M16">
@@ -1437,7 +1440,7 @@
       <c r="N16">
         <v>202</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="1" t="s">
         <v>51</v>
       </c>
       <c r="P16">
@@ -1469,7 +1472,7 @@
       <c r="H17">
         <v>604</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="2" t="s">
         <v>47</v>
       </c>
       <c r="J17">
@@ -1478,7 +1481,7 @@
       <c r="K17">
         <v>607</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="3" t="s">
         <v>45</v>
       </c>
       <c r="M17">
@@ -1487,7 +1490,7 @@
       <c r="N17">
         <v>202</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="1" t="s">
         <v>51</v>
       </c>
       <c r="P17">
@@ -1519,7 +1522,7 @@
       <c r="H18">
         <v>303</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J18">
@@ -1528,7 +1531,7 @@
       <c r="K18">
         <v>305</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="M18">
@@ -1537,7 +1540,7 @@
       <c r="N18">
         <v>201</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="P18">
@@ -1569,7 +1572,7 @@
       <c r="H19">
         <v>202</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="3" t="s">
         <v>51</v>
       </c>
       <c r="J19">
@@ -1578,7 +1581,7 @@
       <c r="K19">
         <v>302</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="M19">
@@ -1587,7 +1590,7 @@
       <c r="N19">
         <v>602</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P19">
@@ -1619,7 +1622,7 @@
       <c r="H20">
         <v>606</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J20">
@@ -1628,7 +1631,7 @@
       <c r="K20">
         <v>104</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="3" t="s">
         <v>43</v>
       </c>
       <c r="M20">
@@ -1637,7 +1640,7 @@
       <c r="N20">
         <v>107</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="3" t="s">
         <v>54</v>
       </c>
       <c r="P20">
@@ -1669,7 +1672,7 @@
       <c r="H21">
         <v>305</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J21">
@@ -1678,7 +1681,7 @@
       <c r="K21">
         <v>303</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M21">
@@ -1687,7 +1690,7 @@
       <c r="N21">
         <v>413</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21" s="3" t="s">
         <v>52</v>
       </c>
       <c r="P21">
@@ -1719,7 +1722,7 @@
       <c r="H22">
         <v>408</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J22">
@@ -1728,7 +1731,7 @@
       <c r="K22">
         <v>506</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="3" t="s">
         <v>49</v>
       </c>
       <c r="M22">
@@ -1737,7 +1740,7 @@
       <c r="N22">
         <v>501</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="3" t="s">
         <v>57</v>
       </c>
       <c r="P22">
@@ -1769,7 +1772,7 @@
       <c r="H23">
         <v>507</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="3" t="s">
         <v>58</v>
       </c>
       <c r="J23">
@@ -1778,7 +1781,7 @@
       <c r="K23">
         <v>412</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="M23">
@@ -1787,7 +1790,7 @@
       <c r="N23">
         <v>303</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P23">
@@ -1819,7 +1822,7 @@
       <c r="H24">
         <v>403</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J24">
@@ -1828,7 +1831,7 @@
       <c r="K24">
         <v>401</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="2" t="s">
         <v>36</v>
       </c>
       <c r="M24">
@@ -1837,7 +1840,7 @@
       <c r="N24">
         <v>504</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="2" t="s">
         <v>55</v>
       </c>
       <c r="P24">
@@ -1869,7 +1872,7 @@
       <c r="H25">
         <v>704</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="3" t="s">
         <v>59</v>
       </c>
       <c r="J25">
@@ -1878,7 +1881,7 @@
       <c r="K25">
         <v>505</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="1" t="s">
         <v>56</v>
       </c>
       <c r="M25">
@@ -1887,7 +1890,7 @@
       <c r="N25">
         <v>506</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25" s="3" t="s">
         <v>49</v>
       </c>
       <c r="P25">
@@ -1919,7 +1922,7 @@
       <c r="H26">
         <v>506</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="3" t="s">
         <v>49</v>
       </c>
       <c r="J26">
@@ -1928,7 +1931,7 @@
       <c r="K26">
         <v>401</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="1" t="s">
         <v>36</v>
       </c>
       <c r="M26">
@@ -1937,7 +1940,7 @@
       <c r="N26">
         <v>402</v>
       </c>
-      <c r="O26" t="s">
+      <c r="O26" s="3" t="s">
         <v>32</v>
       </c>
       <c r="P26">
@@ -1969,7 +1972,7 @@
       <c r="H27">
         <v>505</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J27">
@@ -1978,7 +1981,7 @@
       <c r="K27">
         <v>304</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="3" t="s">
         <v>50</v>
       </c>
       <c r="M27">
@@ -1987,7 +1990,7 @@
       <c r="N27">
         <v>605</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P27">
@@ -2019,7 +2022,7 @@
       <c r="H28">
         <v>505</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J28">
@@ -2028,7 +2031,7 @@
       <c r="K28">
         <v>402</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="3" t="s">
         <v>32</v>
       </c>
       <c r="M28">
@@ -2037,7 +2040,7 @@
       <c r="N28">
         <v>507</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O28" s="3" t="s">
         <v>58</v>
       </c>
       <c r="P28">
@@ -2069,7 +2072,7 @@
       <c r="H29">
         <v>204</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="3" t="s">
         <v>60</v>
       </c>
       <c r="J29">
@@ -2078,7 +2081,7 @@
       <c r="K29">
         <v>504</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="1" t="s">
         <v>55</v>
       </c>
       <c r="M29">
@@ -2087,7 +2090,7 @@
       <c r="N29">
         <v>415</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" s="3" t="s">
         <v>53</v>
       </c>
       <c r="P29">
@@ -2119,7 +2122,7 @@
       <c r="H30">
         <v>506</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J30">
@@ -2128,7 +2131,7 @@
       <c r="K30">
         <v>507</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="2" t="s">
         <v>58</v>
       </c>
       <c r="M30">
@@ -2137,7 +2140,7 @@
       <c r="N30">
         <v>706</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="P30">
@@ -2169,7 +2172,7 @@
       <c r="H31">
         <v>506</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="3" t="s">
         <v>49</v>
       </c>
       <c r="J31">
@@ -2178,7 +2181,7 @@
       <c r="K31">
         <v>507</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="3" t="s">
         <v>58</v>
       </c>
       <c r="M31">
@@ -2187,7 +2190,7 @@
       <c r="N31">
         <v>503</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O31" s="3" t="s">
         <v>44</v>
       </c>
       <c r="P31">
@@ -2219,7 +2222,7 @@
       <c r="H32">
         <v>303</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="3" t="s">
         <v>41</v>
       </c>
       <c r="J32">
@@ -2228,7 +2231,7 @@
       <c r="K32">
         <v>704</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="3" t="s">
         <v>59</v>
       </c>
       <c r="M32">
@@ -2237,7 +2240,7 @@
       <c r="N32">
         <v>506</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O32" s="3" t="s">
         <v>49</v>
       </c>
       <c r="P32">
@@ -2269,7 +2272,7 @@
       <c r="H33">
         <v>303</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="3" t="s">
         <v>41</v>
       </c>
       <c r="J33">
@@ -2278,7 +2281,7 @@
       <c r="K33">
         <v>504</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="1" t="s">
         <v>55</v>
       </c>
       <c r="M33">
@@ -2287,7 +2290,7 @@
       <c r="N33">
         <v>109</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="P33">
@@ -2319,7 +2322,7 @@
       <c r="H34">
         <v>504</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J34">
@@ -2328,7 +2331,7 @@
       <c r="K34">
         <v>503</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="3" t="s">
         <v>44</v>
       </c>
       <c r="M34">
@@ -2337,7 +2340,7 @@
       <c r="N34">
         <v>505</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O34" s="1" t="s">
         <v>56</v>
       </c>
       <c r="P34">
@@ -2369,7 +2372,7 @@
       <c r="H35">
         <v>503</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J35">
@@ -2378,7 +2381,7 @@
       <c r="K35">
         <v>506</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="M35">
@@ -2387,7 +2390,7 @@
       <c r="N35">
         <v>505</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O35" s="1" t="s">
         <v>56</v>
       </c>
       <c r="P35">
@@ -2419,7 +2422,7 @@
       <c r="H36">
         <v>416</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J36">
@@ -2428,7 +2431,7 @@
       <c r="K36">
         <v>411</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M36">
@@ -2437,7 +2440,7 @@
       <c r="N36">
         <v>507</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O36" s="3" t="s">
         <v>58</v>
       </c>
       <c r="P36">
@@ -2469,7 +2472,7 @@
       <c r="H37">
         <v>506</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="3" t="s">
         <v>49</v>
       </c>
       <c r="J37">
@@ -2478,7 +2481,7 @@
       <c r="K37">
         <v>507</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="3" t="s">
         <v>58</v>
       </c>
       <c r="M37">
@@ -2487,7 +2490,7 @@
       <c r="N37">
         <v>703</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O37" s="3" t="s">
         <v>38</v>
       </c>
       <c r="P37">
@@ -2519,7 +2522,7 @@
       <c r="H38">
         <v>305</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J38">
@@ -2528,7 +2531,7 @@
       <c r="K38">
         <v>405</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="2" t="s">
         <v>61</v>
       </c>
       <c r="M38">
@@ -2537,7 +2540,7 @@
       <c r="N38">
         <v>302</v>
       </c>
-      <c r="O38" t="s">
+      <c r="O38" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P38">
@@ -2569,7 +2572,7 @@
       <c r="H39">
         <v>405</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="2" t="s">
         <v>61</v>
       </c>
       <c r="J39">
@@ -2578,7 +2581,7 @@
       <c r="K39">
         <v>703</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M39">
@@ -2587,7 +2590,7 @@
       <c r="N39">
         <v>109</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O39" s="3" t="s">
         <v>17</v>
       </c>
       <c r="P39">
@@ -2619,7 +2622,7 @@
       <c r="H40">
         <v>404</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J40">
@@ -2628,7 +2631,7 @@
       <c r="K40">
         <v>405</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="1" t="s">
         <v>61</v>
       </c>
       <c r="M40">
@@ -2637,7 +2640,7 @@
       <c r="N40">
         <v>412</v>
       </c>
-      <c r="O40" t="s">
+      <c r="O40" s="3" t="s">
         <v>25</v>
       </c>
       <c r="P40">
@@ -2669,7 +2672,7 @@
       <c r="H41">
         <v>406</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="3" t="s">
         <v>64</v>
       </c>
       <c r="J41">
@@ -2678,7 +2681,7 @@
       <c r="K41">
         <v>412</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M41">
@@ -2687,7 +2690,7 @@
       <c r="N41">
         <v>605</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O41" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P41">
@@ -2701,7 +2704,7 @@
       <c r="B42">
         <v>403</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D42">
@@ -2719,7 +2722,7 @@
       <c r="H42">
         <v>408</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J42">
@@ -2728,7 +2731,7 @@
       <c r="K42">
         <v>401</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="2" t="s">
         <v>36</v>
       </c>
       <c r="M42">
@@ -2737,7 +2740,7 @@
       <c r="N42">
         <v>410</v>
       </c>
-      <c r="O42" t="s">
+      <c r="O42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="P42">
@@ -2769,7 +2772,7 @@
       <c r="H43">
         <v>501</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J43">
@@ -2778,7 +2781,7 @@
       <c r="K43">
         <v>504</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="3" t="s">
         <v>55</v>
       </c>
       <c r="M43">
@@ -2787,7 +2790,7 @@
       <c r="N43">
         <v>403</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O43" s="2" t="s">
         <v>22</v>
       </c>
       <c r="P43">
@@ -2819,7 +2822,7 @@
       <c r="H44">
         <v>103</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="3" t="s">
         <v>65</v>
       </c>
       <c r="J44">
@@ -2828,7 +2831,7 @@
       <c r="K44">
         <v>501</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="1" t="s">
         <v>57</v>
       </c>
       <c r="M44">
@@ -2837,7 +2840,7 @@
       <c r="N44">
         <v>416</v>
       </c>
-      <c r="O44" t="s">
+      <c r="O44" s="3" t="s">
         <v>26</v>
       </c>
       <c r="P44">
@@ -2869,7 +2872,7 @@
       <c r="H45">
         <v>411</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J45">
@@ -2878,7 +2881,7 @@
       <c r="K45">
         <v>507</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="3" t="s">
         <v>58</v>
       </c>
       <c r="M45">
@@ -2887,7 +2890,7 @@
       <c r="N45">
         <v>410</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O45" s="1" t="s">
         <v>34</v>
       </c>
       <c r="P45">
@@ -2919,7 +2922,7 @@
       <c r="H46">
         <v>408</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J46">
@@ -2928,7 +2931,7 @@
       <c r="K46">
         <v>405</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="3" t="s">
         <v>61</v>
       </c>
       <c r="M46">
@@ -2937,7 +2940,7 @@
       <c r="N46">
         <v>302</v>
       </c>
-      <c r="O46" t="s">
+      <c r="O46" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P46">
@@ -2969,7 +2972,7 @@
       <c r="H47">
         <v>405</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J47">
@@ -2978,7 +2981,7 @@
       <c r="K47">
         <v>701</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="1" t="s">
         <v>35</v>
       </c>
       <c r="M47">
@@ -2987,7 +2990,7 @@
       <c r="N47">
         <v>414</v>
       </c>
-      <c r="O47" t="s">
+      <c r="O47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="P47">
@@ -3019,7 +3022,7 @@
       <c r="H48">
         <v>407</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="3" t="s">
         <v>63</v>
       </c>
       <c r="J48">
@@ -3028,7 +3031,7 @@
       <c r="K48">
         <v>503</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="2" t="s">
         <v>44</v>
       </c>
       <c r="M48">
@@ -3037,7 +3040,7 @@
       <c r="N48">
         <v>504</v>
       </c>
-      <c r="O48" t="s">
+      <c r="O48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="P48">
@@ -3069,7 +3072,7 @@
       <c r="H49">
         <v>701</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J49">
@@ -3078,7 +3081,7 @@
       <c r="K49">
         <v>504</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="3" t="s">
         <v>55</v>
       </c>
       <c r="M49">
@@ -3087,7 +3090,7 @@
       <c r="N49">
         <v>405</v>
       </c>
-      <c r="O49" t="s">
+      <c r="O49" s="2" t="s">
         <v>61</v>
       </c>
       <c r="P49">
@@ -3119,7 +3122,7 @@
       <c r="H50">
         <v>504</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J50">
@@ -3128,7 +3131,7 @@
       <c r="K50">
         <v>402</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="M50">
@@ -3137,7 +3140,7 @@
       <c r="N50">
         <v>408</v>
       </c>
-      <c r="O50" t="s">
+      <c r="O50" s="3" t="s">
         <v>37</v>
       </c>
       <c r="P50">
@@ -3169,7 +3172,7 @@
       <c r="H51">
         <v>408</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J51">
@@ -3178,7 +3181,7 @@
       <c r="K51">
         <v>701</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" s="1" t="s">
         <v>35</v>
       </c>
       <c r="M51">
@@ -3187,7 +3190,7 @@
       <c r="N51">
         <v>404</v>
       </c>
-      <c r="O51" t="s">
+      <c r="O51" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P51">
@@ -3219,7 +3222,7 @@
       <c r="H52">
         <v>503</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J52">
@@ -3228,7 +3231,7 @@
       <c r="K52">
         <v>605</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L52" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M52">
@@ -3237,7 +3240,7 @@
       <c r="N52">
         <v>402</v>
       </c>
-      <c r="O52" t="s">
+      <c r="O52" s="3" t="s">
         <v>32</v>
       </c>
       <c r="P52">
@@ -3269,7 +3272,7 @@
       <c r="H53">
         <v>705</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="3" t="s">
         <v>42</v>
       </c>
       <c r="J53">
@@ -3278,7 +3281,7 @@
       <c r="K53">
         <v>503</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="3" t="s">
         <v>44</v>
       </c>
       <c r="M53">
@@ -3287,7 +3290,7 @@
       <c r="N53">
         <v>411</v>
       </c>
-      <c r="O53" t="s">
+      <c r="O53" s="3" t="s">
         <v>30</v>
       </c>
       <c r="P53">
@@ -3319,7 +3322,7 @@
       <c r="H54">
         <v>706</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J54">
@@ -3328,7 +3331,7 @@
       <c r="K54">
         <v>503</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" s="3" t="s">
         <v>44</v>
       </c>
       <c r="M54">
@@ -3337,7 +3340,7 @@
       <c r="N54">
         <v>701</v>
       </c>
-      <c r="O54" t="s">
+      <c r="O54" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P54">
@@ -3369,7 +3372,7 @@
       <c r="H55">
         <v>203</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J55">
@@ -3378,7 +3381,7 @@
       <c r="K55">
         <v>414</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L55" s="3" t="s">
         <v>18</v>
       </c>
       <c r="M55">
@@ -3387,7 +3390,7 @@
       <c r="N55">
         <v>302</v>
       </c>
-      <c r="O55" t="s">
+      <c r="O55" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P55">
@@ -3419,7 +3422,7 @@
       <c r="H56">
         <v>506</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="1" t="s">
         <v>49</v>
       </c>
       <c r="J56">
@@ -3428,7 +3431,7 @@
       <c r="K56">
         <v>305</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="3" t="s">
         <v>19</v>
       </c>
       <c r="M56">
@@ -3437,7 +3440,7 @@
       <c r="N56">
         <v>303</v>
       </c>
-      <c r="O56" t="s">
+      <c r="O56" s="2" t="s">
         <v>41</v>
       </c>
       <c r="P56">
@@ -3469,7 +3472,7 @@
       <c r="H57">
         <v>302</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="3" t="s">
         <v>39</v>
       </c>
       <c r="J57">
@@ -3478,7 +3481,7 @@
       <c r="K57">
         <v>403</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L57" s="3" t="s">
         <v>22</v>
       </c>
       <c r="M57">
@@ -3487,7 +3490,7 @@
       <c r="N57">
         <v>706</v>
       </c>
-      <c r="O57" t="s">
+      <c r="O57" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P57">
@@ -3519,7 +3522,7 @@
       <c r="H58">
         <v>607</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="3" t="s">
         <v>45</v>
       </c>
       <c r="J58">
@@ -3528,7 +3531,7 @@
       <c r="K58">
         <v>104</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L58" s="3" t="s">
         <v>43</v>
       </c>
       <c r="M58">
@@ -3537,7 +3540,7 @@
       <c r="N58">
         <v>504</v>
       </c>
-      <c r="O58" t="s">
+      <c r="O58" s="3" t="s">
         <v>55</v>
       </c>
       <c r="P58">
@@ -3569,7 +3572,7 @@
       <c r="H59">
         <v>705</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J59">
@@ -3578,7 +3581,7 @@
       <c r="K59">
         <v>503</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L59" s="1" t="s">
         <v>44</v>
       </c>
       <c r="M59">
@@ -3587,7 +3590,7 @@
       <c r="N59">
         <v>504</v>
       </c>
-      <c r="O59" t="s">
+      <c r="O59" s="1" t="s">
         <v>55</v>
       </c>
       <c r="P59">
@@ -3619,7 +3622,7 @@
       <c r="H60">
         <v>504</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="3" t="s">
         <v>55</v>
       </c>
       <c r="J60">
@@ -3628,7 +3631,7 @@
       <c r="K60">
         <v>411</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L60" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M60">
@@ -3637,7 +3640,7 @@
       <c r="N60">
         <v>703</v>
       </c>
-      <c r="O60" t="s">
+      <c r="O60" s="3" t="s">
         <v>38</v>
       </c>
       <c r="P60">
@@ -3669,7 +3672,7 @@
       <c r="H61">
         <v>102</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="3" t="s">
         <v>66</v>
       </c>
       <c r="J61">
@@ -3678,7 +3681,7 @@
       <c r="K61">
         <v>101</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L61" s="3" t="s">
         <v>67</v>
       </c>
       <c r="M61">
@@ -3687,7 +3690,7 @@
       <c r="N61">
         <v>705</v>
       </c>
-      <c r="O61" t="s">
+      <c r="O61" s="1" t="s">
         <v>42</v>
       </c>
       <c r="P61">
@@ -3719,7 +3722,7 @@
       <c r="H62">
         <v>507</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="1" t="s">
         <v>58</v>
       </c>
       <c r="J62">
@@ -3728,7 +3731,7 @@
       <c r="K62">
         <v>411</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L62" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M62">
@@ -3737,7 +3740,7 @@
       <c r="N62">
         <v>408</v>
       </c>
-      <c r="O62" t="s">
+      <c r="O62" s="3" t="s">
         <v>37</v>
       </c>
       <c r="P62">
@@ -3769,7 +3772,7 @@
       <c r="H63">
         <v>411</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J63">
@@ -3778,7 +3781,7 @@
       <c r="K63">
         <v>416</v>
       </c>
-      <c r="L63" t="s">
+      <c r="L63" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M63">
@@ -3787,7 +3790,7 @@
       <c r="N63">
         <v>410</v>
       </c>
-      <c r="O63" t="s">
+      <c r="O63" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P63">
@@ -3819,7 +3822,7 @@
       <c r="H64">
         <v>506</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="1" t="s">
         <v>49</v>
       </c>
       <c r="J64">
@@ -3828,7 +3831,7 @@
       <c r="K64">
         <v>203</v>
       </c>
-      <c r="L64" t="s">
+      <c r="L64" s="3" t="s">
         <v>20</v>
       </c>
       <c r="M64">
@@ -3837,7 +3840,7 @@
       <c r="N64">
         <v>109</v>
       </c>
-      <c r="O64" t="s">
+      <c r="O64" s="3" t="s">
         <v>17</v>
       </c>
       <c r="P64">
@@ -3869,7 +3872,7 @@
       <c r="H65">
         <v>501</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J65">
@@ -3878,7 +3881,7 @@
       <c r="K65">
         <v>303</v>
       </c>
-      <c r="L65" t="s">
+      <c r="L65" s="2" t="s">
         <v>41</v>
       </c>
       <c r="M65">
@@ -3887,7 +3890,7 @@
       <c r="N65">
         <v>414</v>
       </c>
-      <c r="O65" t="s">
+      <c r="O65" s="3" t="s">
         <v>18</v>
       </c>
       <c r="P65">
@@ -3919,7 +3922,7 @@
       <c r="H66">
         <v>607</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="3" t="s">
         <v>45</v>
       </c>
       <c r="J66">
@@ -3928,7 +3931,7 @@
       <c r="K66">
         <v>501</v>
       </c>
-      <c r="L66" t="s">
+      <c r="L66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="M66">
@@ -3937,7 +3940,7 @@
       <c r="N66">
         <v>416</v>
       </c>
-      <c r="O66" t="s">
+      <c r="O66" s="3" t="s">
         <v>26</v>
       </c>
       <c r="P66">
@@ -3969,7 +3972,7 @@
       <c r="H67">
         <v>305</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J67">
@@ -3978,7 +3981,7 @@
       <c r="K67">
         <v>501</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L67" s="1" t="s">
         <v>57</v>
       </c>
       <c r="M67">
@@ -3987,7 +3990,7 @@
       <c r="N67">
         <v>103</v>
       </c>
-      <c r="O67" t="s">
+      <c r="O67" s="3" t="s">
         <v>65</v>
       </c>
       <c r="P67">
@@ -4019,7 +4022,7 @@
       <c r="H68">
         <v>702</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="3" t="s">
         <v>62</v>
       </c>
       <c r="J68">
@@ -4028,7 +4031,7 @@
       <c r="K68">
         <v>501</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L68" s="1" t="s">
         <v>57</v>
       </c>
       <c r="M68">
@@ -4037,7 +4040,7 @@
       <c r="N68">
         <v>303</v>
       </c>
-      <c r="O68" t="s">
+      <c r="O68" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P68">
@@ -4069,7 +4072,7 @@
       <c r="H69">
         <v>412</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="3" t="s">
         <v>25</v>
       </c>
       <c r="J69">
@@ -4078,7 +4081,7 @@
       <c r="K69">
         <v>304</v>
       </c>
-      <c r="L69" t="s">
+      <c r="L69" s="3" t="s">
         <v>50</v>
       </c>
       <c r="M69">
@@ -4087,7 +4090,7 @@
       <c r="N69">
         <v>409</v>
       </c>
-      <c r="O69" t="s">
+      <c r="O69" s="3" t="s">
         <v>24</v>
       </c>
       <c r="P69">
@@ -4119,7 +4122,7 @@
       <c r="H70">
         <v>703</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="3" t="s">
         <v>38</v>
       </c>
       <c r="J70">
@@ -4128,7 +4131,7 @@
       <c r="K70">
         <v>506</v>
       </c>
-      <c r="L70" t="s">
+      <c r="L70" s="3" t="s">
         <v>49</v>
       </c>
       <c r="M70">
@@ -4137,7 +4140,7 @@
       <c r="N70">
         <v>502</v>
       </c>
-      <c r="O70" t="s">
+      <c r="O70" s="3" t="s">
         <v>68</v>
       </c>
       <c r="P70">
@@ -4169,7 +4172,7 @@
       <c r="H71">
         <v>702</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="3" t="s">
         <v>62</v>
       </c>
       <c r="J71">
@@ -4178,7 +4181,7 @@
       <c r="K71">
         <v>502</v>
       </c>
-      <c r="L71" t="s">
+      <c r="L71" s="3" t="s">
         <v>68</v>
       </c>
       <c r="M71">
@@ -4187,7 +4190,7 @@
       <c r="N71">
         <v>408</v>
       </c>
-      <c r="O71" t="s">
+      <c r="O71" s="3" t="s">
         <v>37</v>
       </c>
       <c r="P71">
@@ -4219,7 +4222,7 @@
       <c r="H72">
         <v>403</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J72">
@@ -4228,7 +4231,7 @@
       <c r="K72">
         <v>605</v>
       </c>
-      <c r="L72" t="s">
+      <c r="L72" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M72">
@@ -4237,7 +4240,7 @@
       <c r="N72">
         <v>607</v>
       </c>
-      <c r="O72" t="s">
+      <c r="O72" s="3" t="s">
         <v>45</v>
       </c>
       <c r="P72">
@@ -4269,7 +4272,7 @@
       <c r="H73">
         <v>703</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="3" t="s">
         <v>38</v>
       </c>
       <c r="J73">
@@ -4278,7 +4281,7 @@
       <c r="K73">
         <v>416</v>
       </c>
-      <c r="L73" t="s">
+      <c r="L73" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M73">
@@ -4287,7 +4290,7 @@
       <c r="N73">
         <v>607</v>
       </c>
-      <c r="O73" t="s">
+      <c r="O73" s="3" t="s">
         <v>45</v>
       </c>
       <c r="P73">
@@ -4319,7 +4322,7 @@
       <c r="H74">
         <v>501</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J74">
@@ -4328,7 +4331,7 @@
       <c r="K74">
         <v>507</v>
       </c>
-      <c r="L74" t="s">
+      <c r="L74" s="3" t="s">
         <v>58</v>
       </c>
       <c r="M74">
@@ -4337,7 +4340,7 @@
       <c r="N74">
         <v>410</v>
       </c>
-      <c r="O74" t="s">
+      <c r="O74" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P74">
@@ -4369,7 +4372,7 @@
       <c r="H75">
         <v>404</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J75">
@@ -4378,7 +4381,7 @@
       <c r="K75">
         <v>408</v>
       </c>
-      <c r="L75" t="s">
+      <c r="L75" s="2" t="s">
         <v>37</v>
       </c>
       <c r="M75">
@@ -4387,7 +4390,7 @@
       <c r="N75">
         <v>608</v>
       </c>
-      <c r="O75" t="s">
+      <c r="O75" s="3" t="s">
         <v>33</v>
       </c>
       <c r="P75">
@@ -4419,7 +4422,7 @@
       <c r="H76">
         <v>405</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="3" t="s">
         <v>61</v>
       </c>
       <c r="J76">
@@ -4428,7 +4431,7 @@
       <c r="K76">
         <v>412</v>
       </c>
-      <c r="L76" t="s">
+      <c r="L76" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M76">
@@ -4437,7 +4440,7 @@
       <c r="N76">
         <v>414</v>
       </c>
-      <c r="O76" t="s">
+      <c r="O76" s="3" t="s">
         <v>18</v>
       </c>
       <c r="P76">
@@ -4469,7 +4472,7 @@
       <c r="H77">
         <v>505</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="3" t="s">
         <v>56</v>
       </c>
       <c r="J77">
@@ -4478,7 +4481,7 @@
       <c r="K77">
         <v>605</v>
       </c>
-      <c r="L77" t="s">
+      <c r="L77" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M77">
@@ -4487,7 +4490,7 @@
       <c r="N77">
         <v>504</v>
       </c>
-      <c r="O77" t="s">
+      <c r="O77" s="3" t="s">
         <v>55</v>
       </c>
       <c r="P77">
@@ -4519,7 +4522,7 @@
       <c r="H78">
         <v>403</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J78">
@@ -4528,7 +4531,7 @@
       <c r="K78">
         <v>108</v>
       </c>
-      <c r="L78" t="s">
+      <c r="L78" s="3" t="s">
         <v>48</v>
       </c>
       <c r="M78">
@@ -4537,7 +4540,7 @@
       <c r="N78">
         <v>703</v>
       </c>
-      <c r="O78" t="s">
+      <c r="O78" s="3" t="s">
         <v>38</v>
       </c>
       <c r="P78">
@@ -4569,7 +4572,7 @@
       <c r="H79">
         <v>501</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J79">
@@ -4578,7 +4581,7 @@
       <c r="K79">
         <v>409</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L79" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M79">
@@ -4587,7 +4590,7 @@
       <c r="N79">
         <v>412</v>
       </c>
-      <c r="O79" t="s">
+      <c r="O79" s="3" t="s">
         <v>25</v>
       </c>
       <c r="P79">
@@ -4619,7 +4622,7 @@
       <c r="H80">
         <v>702</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" s="3" t="s">
         <v>62</v>
       </c>
       <c r="J80">
@@ -4628,7 +4631,7 @@
       <c r="K80">
         <v>407</v>
       </c>
-      <c r="L80" t="s">
+      <c r="L80" s="3" t="s">
         <v>63</v>
       </c>
       <c r="M80">
@@ -4637,7 +4640,7 @@
       <c r="N80">
         <v>105</v>
       </c>
-      <c r="O80" t="s">
+      <c r="O80" s="3" t="s">
         <v>69</v>
       </c>
       <c r="P80">
@@ -4669,7 +4672,7 @@
       <c r="H81">
         <v>304</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" s="3" t="s">
         <v>50</v>
       </c>
       <c r="J81">
@@ -4678,7 +4681,7 @@
       <c r="K81">
         <v>703</v>
       </c>
-      <c r="L81" t="s">
+      <c r="L81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="M81">
@@ -4687,7 +4690,7 @@
       <c r="N81">
         <v>416</v>
       </c>
-      <c r="O81" t="s">
+      <c r="O81" s="3" t="s">
         <v>26</v>
       </c>
       <c r="P81">
@@ -4719,7 +4722,7 @@
       <c r="H82">
         <v>105</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="3" t="s">
         <v>69</v>
       </c>
       <c r="J82">
@@ -4728,7 +4731,7 @@
       <c r="K82">
         <v>405</v>
       </c>
-      <c r="L82" t="s">
+      <c r="L82" s="3" t="s">
         <v>61</v>
       </c>
       <c r="M82">
@@ -4737,7 +4740,7 @@
       <c r="N82">
         <v>410</v>
       </c>
-      <c r="O82" t="s">
+      <c r="O82" s="3" t="s">
         <v>34</v>
       </c>
       <c r="P82">
@@ -4769,7 +4772,7 @@
       <c r="H83">
         <v>507</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" s="3" t="s">
         <v>58</v>
       </c>
       <c r="J83">
@@ -4778,7 +4781,7 @@
       <c r="K83">
         <v>506</v>
       </c>
-      <c r="L83" t="s">
+      <c r="L83" s="3" t="s">
         <v>49</v>
       </c>
       <c r="M83">
@@ -4787,7 +4790,7 @@
       <c r="N83">
         <v>410</v>
       </c>
-      <c r="O83" t="s">
+      <c r="O83" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P83">
@@ -4819,7 +4822,7 @@
       <c r="H84">
         <v>303</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="3" t="s">
         <v>41</v>
       </c>
       <c r="J84">
@@ -4828,7 +4831,7 @@
       <c r="K84">
         <v>408</v>
       </c>
-      <c r="L84" t="s">
+      <c r="L84" s="2" t="s">
         <v>37</v>
       </c>
       <c r="M84">
@@ -4837,7 +4840,7 @@
       <c r="N84">
         <v>411</v>
       </c>
-      <c r="O84" t="s">
+      <c r="O84" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P84">
@@ -4869,7 +4872,7 @@
       <c r="H85">
         <v>109</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J85">
@@ -4878,7 +4881,7 @@
       <c r="K85">
         <v>605</v>
       </c>
-      <c r="L85" t="s">
+      <c r="L85" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M85">
@@ -4887,7 +4890,7 @@
       <c r="N85">
         <v>302</v>
       </c>
-      <c r="O85" t="s">
+      <c r="O85" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P85">
@@ -4919,7 +4922,7 @@
       <c r="H86">
         <v>412</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="3" t="s">
         <v>25</v>
       </c>
       <c r="J86">
@@ -4928,7 +4931,7 @@
       <c r="K86">
         <v>302</v>
       </c>
-      <c r="L86" t="s">
+      <c r="L86" s="2" t="s">
         <v>39</v>
       </c>
       <c r="M86">
@@ -4937,7 +4940,7 @@
       <c r="N86">
         <v>413</v>
       </c>
-      <c r="O86" t="s">
+      <c r="O86" s="3" t="s">
         <v>52</v>
       </c>
       <c r="P86">
@@ -4969,7 +4972,7 @@
       <c r="H87">
         <v>411</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J87">
@@ -4978,7 +4981,7 @@
       <c r="K87">
         <v>412</v>
       </c>
-      <c r="L87" t="s">
+      <c r="L87" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M87">
@@ -4987,7 +4990,7 @@
       <c r="N87">
         <v>504</v>
       </c>
-      <c r="O87" t="s">
+      <c r="O87" s="3" t="s">
         <v>55</v>
       </c>
       <c r="P87">
@@ -5019,7 +5022,7 @@
       <c r="H88">
         <v>502</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J88">
@@ -5028,7 +5031,7 @@
       <c r="K88">
         <v>606</v>
       </c>
-      <c r="L88" t="s">
+      <c r="L88" s="3" t="s">
         <v>23</v>
       </c>
       <c r="M88">
@@ -5037,7 +5040,7 @@
       <c r="N88">
         <v>505</v>
       </c>
-      <c r="O88" t="s">
+      <c r="O88" s="3" t="s">
         <v>56</v>
       </c>
       <c r="P88">
@@ -5069,7 +5072,7 @@
       <c r="H89">
         <v>403</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J89">
@@ -5078,7 +5081,7 @@
       <c r="K89">
         <v>401</v>
       </c>
-      <c r="L89" t="s">
+      <c r="L89" s="3" t="s">
         <v>36</v>
       </c>
       <c r="M89">
@@ -5087,7 +5090,7 @@
       <c r="N89">
         <v>201</v>
       </c>
-      <c r="O89" t="s">
+      <c r="O89" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P89">
@@ -5119,7 +5122,7 @@
       <c r="H90">
         <v>704</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" s="3" t="s">
         <v>59</v>
       </c>
       <c r="J90">
@@ -5128,7 +5131,7 @@
       <c r="K90">
         <v>410</v>
       </c>
-      <c r="L90" t="s">
+      <c r="L90" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M90">
@@ -5137,7 +5140,7 @@
       <c r="N90">
         <v>303</v>
       </c>
-      <c r="O90" t="s">
+      <c r="O90" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P90">
@@ -5169,7 +5172,7 @@
       <c r="H91">
         <v>504</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" s="3" t="s">
         <v>55</v>
       </c>
       <c r="J91">
@@ -5178,7 +5181,7 @@
       <c r="K91">
         <v>605</v>
       </c>
-      <c r="L91" t="s">
+      <c r="L91" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M91">
@@ -5187,7 +5190,7 @@
       <c r="N91">
         <v>703</v>
       </c>
-      <c r="O91" t="s">
+      <c r="O91" s="3" t="s">
         <v>38</v>
       </c>
       <c r="P91">
@@ -5219,7 +5222,7 @@
       <c r="H92">
         <v>409</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J92">
@@ -5228,7 +5231,7 @@
       <c r="K92">
         <v>606</v>
       </c>
-      <c r="L92" t="s">
+      <c r="L92" s="3" t="s">
         <v>23</v>
       </c>
       <c r="M92">
@@ -5237,7 +5240,7 @@
       <c r="N92">
         <v>502</v>
       </c>
-      <c r="O92" t="s">
+      <c r="O92" s="3" t="s">
         <v>68</v>
       </c>
       <c r="P92">
@@ -5269,7 +5272,7 @@
       <c r="H93">
         <v>507</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" s="3" t="s">
         <v>58</v>
       </c>
       <c r="J93">
@@ -5278,7 +5281,7 @@
       <c r="K93">
         <v>506</v>
       </c>
-      <c r="L93" t="s">
+      <c r="L93" s="3" t="s">
         <v>49</v>
       </c>
       <c r="M93">
@@ -5287,7 +5290,7 @@
       <c r="N93">
         <v>410</v>
       </c>
-      <c r="O93" t="s">
+      <c r="O93" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P93">
@@ -5319,7 +5322,7 @@
       <c r="H94">
         <v>505</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" s="3" t="s">
         <v>56</v>
       </c>
       <c r="J94">
@@ -5328,7 +5331,7 @@
       <c r="K94">
         <v>507</v>
       </c>
-      <c r="L94" t="s">
+      <c r="L94" s="3" t="s">
         <v>58</v>
       </c>
       <c r="M94">
@@ -5337,7 +5340,7 @@
       <c r="N94">
         <v>504</v>
       </c>
-      <c r="O94" t="s">
+      <c r="O94" s="3" t="s">
         <v>55</v>
       </c>
       <c r="P94">
@@ -5369,7 +5372,7 @@
       <c r="H95">
         <v>701</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" s="3" t="s">
         <v>35</v>
       </c>
       <c r="J95">
@@ -5378,7 +5381,7 @@
       <c r="K95">
         <v>305</v>
       </c>
-      <c r="L95" t="s">
+      <c r="L95" s="3" t="s">
         <v>19</v>
       </c>
       <c r="M95">
@@ -5387,7 +5390,7 @@
       <c r="N95">
         <v>603</v>
       </c>
-      <c r="O95" t="s">
+      <c r="O95" s="3" t="s">
         <v>46</v>
       </c>
       <c r="P95">
@@ -5419,7 +5422,7 @@
       <c r="H96">
         <v>301</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I96" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J96">
@@ -5428,7 +5431,7 @@
       <c r="K96">
         <v>110</v>
       </c>
-      <c r="L96" t="s">
+      <c r="L96" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M96">
@@ -5437,7 +5440,7 @@
       <c r="N96">
         <v>204</v>
       </c>
-      <c r="O96" t="s">
+      <c r="O96" s="3" t="s">
         <v>60</v>
       </c>
       <c r="P96">
@@ -5469,7 +5472,7 @@
       <c r="H97">
         <v>304</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J97">
@@ -5478,7 +5481,7 @@
       <c r="K97">
         <v>503</v>
       </c>
-      <c r="L97" t="s">
+      <c r="L97" s="3" t="s">
         <v>44</v>
       </c>
       <c r="M97">
@@ -5487,7 +5490,7 @@
       <c r="N97">
         <v>606</v>
       </c>
-      <c r="O97" t="s">
+      <c r="O97" s="3" t="s">
         <v>23</v>
       </c>
       <c r="P97">
@@ -5519,7 +5522,7 @@
       <c r="H98">
         <v>107</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" s="3" t="s">
         <v>54</v>
       </c>
       <c r="J98">
@@ -5528,7 +5531,7 @@
       <c r="K98">
         <v>202</v>
       </c>
-      <c r="L98" t="s">
+      <c r="L98" s="3" t="s">
         <v>51</v>
       </c>
       <c r="M98">
@@ -5537,7 +5540,7 @@
       <c r="N98">
         <v>109</v>
       </c>
-      <c r="O98" t="s">
+      <c r="O98" s="3" t="s">
         <v>17</v>
       </c>
       <c r="P98">
@@ -5569,7 +5572,7 @@
       <c r="H99">
         <v>202</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J99">
@@ -5578,7 +5581,7 @@
       <c r="K99">
         <v>404</v>
       </c>
-      <c r="L99" t="s">
+      <c r="L99" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M99">
@@ -5587,7 +5590,7 @@
       <c r="N99">
         <v>305</v>
       </c>
-      <c r="O99" t="s">
+      <c r="O99" s="3" t="s">
         <v>19</v>
       </c>
       <c r="P99">
@@ -5619,7 +5622,7 @@
       <c r="H100">
         <v>505</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J100">
@@ -5628,7 +5631,7 @@
       <c r="K100">
         <v>302</v>
       </c>
-      <c r="L100" t="s">
+      <c r="L100" s="2" t="s">
         <v>39</v>
       </c>
       <c r="M100">
@@ -5637,7 +5640,7 @@
       <c r="N100">
         <v>303</v>
       </c>
-      <c r="O100" t="s">
+      <c r="O100" s="2" t="s">
         <v>41</v>
       </c>
       <c r="P100">
@@ -5669,7 +5672,7 @@
       <c r="H101">
         <v>503</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J101">
@@ -5678,7 +5681,7 @@
       <c r="K101">
         <v>504</v>
       </c>
-      <c r="L101" t="s">
+      <c r="L101" s="2" t="s">
         <v>55</v>
       </c>
       <c r="M101">
@@ -5687,7 +5690,7 @@
       <c r="N101">
         <v>105</v>
       </c>
-      <c r="O101" t="s">
+      <c r="O101" s="3" t="s">
         <v>69</v>
       </c>
       <c r="P101">
@@ -5719,7 +5722,7 @@
       <c r="H102">
         <v>604</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="3" t="s">
         <v>47</v>
       </c>
       <c r="J102">
@@ -5728,7 +5731,7 @@
       <c r="K102">
         <v>505</v>
       </c>
-      <c r="L102" t="s">
+      <c r="L102" s="2" t="s">
         <v>56</v>
       </c>
       <c r="M102">
@@ -5737,7 +5740,7 @@
       <c r="N102">
         <v>603</v>
       </c>
-      <c r="O102" t="s">
+      <c r="O102" s="3" t="s">
         <v>46</v>
       </c>
       <c r="P102">
@@ -5769,7 +5772,7 @@
       <c r="H103">
         <v>604</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" s="2" t="s">
         <v>47</v>
       </c>
       <c r="J103">
@@ -5778,7 +5781,7 @@
       <c r="K103">
         <v>505</v>
       </c>
-      <c r="L103" t="s">
+      <c r="L103" s="2" t="s">
         <v>56</v>
       </c>
       <c r="M103">
@@ -5787,7 +5790,7 @@
       <c r="N103">
         <v>603</v>
       </c>
-      <c r="O103" t="s">
+      <c r="O103" s="2" t="s">
         <v>46</v>
       </c>
       <c r="P103">
@@ -5819,7 +5822,7 @@
       <c r="H104">
         <v>607</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" s="3" t="s">
         <v>45</v>
       </c>
       <c r="J104">
@@ -5828,7 +5831,7 @@
       <c r="K104">
         <v>606</v>
       </c>
-      <c r="L104" t="s">
+      <c r="L104" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M104">
@@ -5837,7 +5840,7 @@
       <c r="N104">
         <v>204</v>
       </c>
-      <c r="O104" t="s">
+      <c r="O104" s="2" t="s">
         <v>60</v>
       </c>
       <c r="P104">
@@ -5869,7 +5872,7 @@
       <c r="H105">
         <v>304</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J105">
@@ -5878,7 +5881,7 @@
       <c r="K105">
         <v>201</v>
       </c>
-      <c r="L105" t="s">
+      <c r="L105" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M105">
@@ -5887,7 +5890,7 @@
       <c r="N105">
         <v>401</v>
       </c>
-      <c r="O105" t="s">
+      <c r="O105" s="3" t="s">
         <v>36</v>
       </c>
       <c r="P105">
@@ -5919,7 +5922,7 @@
       <c r="H106">
         <v>101</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I106" s="3" t="s">
         <v>67</v>
       </c>
       <c r="J106">
@@ -5928,7 +5931,7 @@
       <c r="K106">
         <v>102</v>
       </c>
-      <c r="L106" t="s">
+      <c r="L106" s="3" t="s">
         <v>66</v>
       </c>
       <c r="M106">
@@ -5937,7 +5940,7 @@
       <c r="N106">
         <v>701</v>
       </c>
-      <c r="O106" t="s">
+      <c r="O106" s="2" t="s">
         <v>35</v>
       </c>
       <c r="P106">
@@ -5969,7 +5972,7 @@
       <c r="H107">
         <v>603</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I107" s="3" t="s">
         <v>46</v>
       </c>
       <c r="J107">
@@ -5978,7 +5981,7 @@
       <c r="K107">
         <v>203</v>
       </c>
-      <c r="L107" t="s">
+      <c r="L107" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M107">
@@ -5987,7 +5990,7 @@
       <c r="N107">
         <v>204</v>
       </c>
-      <c r="O107" t="s">
+      <c r="O107" s="2" t="s">
         <v>60</v>
       </c>
       <c r="P107">
@@ -6019,7 +6022,7 @@
       <c r="H108">
         <v>404</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I108" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J108">
@@ -6028,7 +6031,7 @@
       <c r="K108">
         <v>109</v>
       </c>
-      <c r="L108" t="s">
+      <c r="L108" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M108">
@@ -6037,7 +6040,7 @@
       <c r="N108">
         <v>203</v>
       </c>
-      <c r="O108" t="s">
+      <c r="O108" s="3" t="s">
         <v>20</v>
       </c>
       <c r="P108">
@@ -6069,7 +6072,7 @@
       <c r="H109">
         <v>604</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109" s="3" t="s">
         <v>47</v>
       </c>
       <c r="J109">
@@ -6078,7 +6081,7 @@
       <c r="K109">
         <v>706</v>
       </c>
-      <c r="L109" t="s">
+      <c r="L109" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M109">
@@ -6087,7 +6090,7 @@
       <c r="N109">
         <v>409</v>
       </c>
-      <c r="O109" t="s">
+      <c r="O109" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P109">
@@ -6119,7 +6122,7 @@
       <c r="H110">
         <v>706</v>
       </c>
-      <c r="I110" t="s">
+      <c r="I110" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J110">
@@ -6128,7 +6131,7 @@
       <c r="K110">
         <v>701</v>
       </c>
-      <c r="L110" t="s">
+      <c r="L110" s="3" t="s">
         <v>35</v>
       </c>
       <c r="M110">
@@ -6137,7 +6140,7 @@
       <c r="N110">
         <v>303</v>
       </c>
-      <c r="O110" t="s">
+      <c r="O110" s="2" t="s">
         <v>41</v>
       </c>
       <c r="P110">
@@ -6169,7 +6172,7 @@
       <c r="H111">
         <v>503</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I111" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J111">
@@ -6178,7 +6181,7 @@
       <c r="K111">
         <v>402</v>
       </c>
-      <c r="L111" t="s">
+      <c r="L111" s="3" t="s">
         <v>32</v>
       </c>
       <c r="M111">
@@ -6187,7 +6190,7 @@
       <c r="N111">
         <v>410</v>
       </c>
-      <c r="O111" t="s">
+      <c r="O111" s="3" t="s">
         <v>34</v>
       </c>
       <c r="P111">
@@ -6219,7 +6222,7 @@
       <c r="H112">
         <v>705</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I112" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J112">
@@ -6228,7 +6231,7 @@
       <c r="K112">
         <v>505</v>
       </c>
-      <c r="L112" t="s">
+      <c r="L112" s="1" t="s">
         <v>56</v>
       </c>
       <c r="M112">
@@ -6237,7 +6240,7 @@
       <c r="N112">
         <v>507</v>
       </c>
-      <c r="O112" t="s">
+      <c r="O112" s="3" t="s">
         <v>58</v>
       </c>
       <c r="P112">
@@ -6269,7 +6272,7 @@
       <c r="H113">
         <v>506</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J113">
@@ -6278,7 +6281,7 @@
       <c r="K113">
         <v>503</v>
       </c>
-      <c r="L113" t="s">
+      <c r="L113" s="2" t="s">
         <v>44</v>
       </c>
       <c r="M113">
@@ -6287,7 +6290,7 @@
       <c r="N113">
         <v>604</v>
       </c>
-      <c r="O113" t="s">
+      <c r="O113" s="3" t="s">
         <v>47</v>
       </c>
       <c r="P113">
@@ -6319,7 +6322,7 @@
       <c r="H114">
         <v>404</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I114" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J114">
@@ -6328,7 +6331,7 @@
       <c r="K114">
         <v>203</v>
       </c>
-      <c r="L114" t="s">
+      <c r="L114" s="3" t="s">
         <v>20</v>
       </c>
       <c r="M114">
@@ -6337,7 +6340,7 @@
       <c r="N114">
         <v>503</v>
       </c>
-      <c r="O114" t="s">
+      <c r="O114" s="2" t="s">
         <v>44</v>
       </c>
       <c r="P114">
@@ -6369,7 +6372,7 @@
       <c r="H115">
         <v>416</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I115" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J115">
@@ -6378,7 +6381,7 @@
       <c r="K115">
         <v>405</v>
       </c>
-      <c r="L115" t="s">
+      <c r="L115" s="3" t="s">
         <v>61</v>
       </c>
       <c r="M115">
@@ -6387,7 +6390,7 @@
       <c r="N115">
         <v>403</v>
       </c>
-      <c r="O115" t="s">
+      <c r="O115" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P115">
@@ -6401,7 +6404,7 @@
       <c r="B116">
         <v>109</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116">
@@ -6419,7 +6422,7 @@
       <c r="H116">
         <v>416</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I116" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J116">
@@ -6428,7 +6431,7 @@
       <c r="K116">
         <v>504</v>
       </c>
-      <c r="L116" t="s">
+      <c r="L116" s="2" t="s">
         <v>55</v>
       </c>
       <c r="M116">
@@ -6437,7 +6440,7 @@
       <c r="N116">
         <v>602</v>
       </c>
-      <c r="O116" t="s">
+      <c r="O116" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P116">
@@ -6469,7 +6472,7 @@
       <c r="H117">
         <v>305</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I117" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J117">
@@ -6478,7 +6481,7 @@
       <c r="K117">
         <v>108</v>
       </c>
-      <c r="L117" t="s">
+      <c r="L117" s="3" t="s">
         <v>48</v>
       </c>
       <c r="M117">
@@ -6487,7 +6490,7 @@
       <c r="N117">
         <v>608</v>
       </c>
-      <c r="O117" t="s">
+      <c r="O117" s="3" t="s">
         <v>33</v>
       </c>
       <c r="P117">
@@ -6519,7 +6522,7 @@
       <c r="H118">
         <v>404</v>
       </c>
-      <c r="I118" t="s">
+      <c r="I118" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J118">
@@ -6528,7 +6531,7 @@
       <c r="K118">
         <v>403</v>
       </c>
-      <c r="L118" t="s">
+      <c r="L118" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M118">
@@ -6537,7 +6540,7 @@
       <c r="N118">
         <v>505</v>
       </c>
-      <c r="O118" t="s">
+      <c r="O118" s="3" t="s">
         <v>56</v>
       </c>
       <c r="P118">
@@ -6569,7 +6572,7 @@
       <c r="H119">
         <v>416</v>
       </c>
-      <c r="I119" t="s">
+      <c r="I119" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J119">
@@ -6578,7 +6581,7 @@
       <c r="K119">
         <v>410</v>
       </c>
-      <c r="L119" t="s">
+      <c r="L119" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M119">
@@ -6587,7 +6590,7 @@
       <c r="N119">
         <v>405</v>
       </c>
-      <c r="O119" t="s">
+      <c r="O119" s="3" t="s">
         <v>61</v>
       </c>
       <c r="P119">
@@ -6619,7 +6622,7 @@
       <c r="H120">
         <v>409</v>
       </c>
-      <c r="I120" t="s">
+      <c r="I120" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J120">
@@ -6628,7 +6631,7 @@
       <c r="K120">
         <v>411</v>
       </c>
-      <c r="L120" t="s">
+      <c r="L120" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M120">
@@ -6637,7 +6640,7 @@
       <c r="N120">
         <v>402</v>
       </c>
-      <c r="O120" t="s">
+      <c r="O120" s="3" t="s">
         <v>32</v>
       </c>
       <c r="P120">
@@ -6669,7 +6672,7 @@
       <c r="H121">
         <v>103</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I121" s="3" t="s">
         <v>65</v>
       </c>
       <c r="J121">
@@ -6678,7 +6681,7 @@
       <c r="K121">
         <v>604</v>
       </c>
-      <c r="L121" t="s">
+      <c r="L121" s="3" t="s">
         <v>47</v>
       </c>
       <c r="M121">
@@ -6687,7 +6690,7 @@
       <c r="N121">
         <v>504</v>
       </c>
-      <c r="O121" t="s">
+      <c r="O121" s="1" t="s">
         <v>55</v>
       </c>
       <c r="P121">
@@ -6719,7 +6722,7 @@
       <c r="H122">
         <v>706</v>
       </c>
-      <c r="I122" t="s">
+      <c r="I122" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J122">
@@ -6728,7 +6731,7 @@
       <c r="K122">
         <v>408</v>
       </c>
-      <c r="L122" t="s">
+      <c r="L122" s="3" t="s">
         <v>37</v>
       </c>
       <c r="M122">
@@ -6737,7 +6740,7 @@
       <c r="N122">
         <v>505</v>
       </c>
-      <c r="O122" t="s">
+      <c r="O122" s="1" t="s">
         <v>56</v>
       </c>
       <c r="P122">
@@ -6769,7 +6772,7 @@
       <c r="H123">
         <v>105</v>
       </c>
-      <c r="I123" t="s">
+      <c r="I123" s="2" t="s">
         <v>69</v>
       </c>
       <c r="J123">
@@ -6778,7 +6781,7 @@
       <c r="K123">
         <v>705</v>
       </c>
-      <c r="L123" t="s">
+      <c r="L123" s="1" t="s">
         <v>42</v>
       </c>
       <c r="M123">
@@ -6787,7 +6790,7 @@
       <c r="N123">
         <v>506</v>
       </c>
-      <c r="O123" t="s">
+      <c r="O123" s="3" t="s">
         <v>49</v>
       </c>
       <c r="P123">
@@ -6819,7 +6822,7 @@
       <c r="H124">
         <v>504</v>
       </c>
-      <c r="I124" t="s">
+      <c r="I124" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J124">
@@ -6828,7 +6831,7 @@
       <c r="K124">
         <v>507</v>
       </c>
-      <c r="L124" t="s">
+      <c r="L124" s="3" t="s">
         <v>58</v>
       </c>
       <c r="M124">
@@ -6837,7 +6840,7 @@
       <c r="N124">
         <v>410</v>
       </c>
-      <c r="O124" t="s">
+      <c r="O124" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P124">
@@ -6869,7 +6872,7 @@
       <c r="H125">
         <v>410</v>
       </c>
-      <c r="I125" t="s">
+      <c r="I125" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J125">
@@ -6878,7 +6881,7 @@
       <c r="K125">
         <v>608</v>
       </c>
-      <c r="L125" t="s">
+      <c r="L125" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M125">
@@ -6887,7 +6890,7 @@
       <c r="N125">
         <v>404</v>
       </c>
-      <c r="O125" t="s">
+      <c r="O125" s="2" t="s">
         <v>16</v>
       </c>
       <c r="P125">
@@ -6919,7 +6922,7 @@
       <c r="H126">
         <v>412</v>
       </c>
-      <c r="I126" t="s">
+      <c r="I126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J126">
@@ -6928,7 +6931,7 @@
       <c r="K126">
         <v>303</v>
       </c>
-      <c r="L126" t="s">
+      <c r="L126" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M126">
@@ -6937,7 +6940,7 @@
       <c r="N126">
         <v>413</v>
       </c>
-      <c r="O126" t="s">
+      <c r="O126" s="1" t="s">
         <v>52</v>
       </c>
       <c r="P126">
@@ -6969,7 +6972,7 @@
       <c r="H127">
         <v>403</v>
       </c>
-      <c r="I127" t="s">
+      <c r="I127" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J127">
@@ -6978,7 +6981,7 @@
       <c r="K127">
         <v>109</v>
       </c>
-      <c r="L127" t="s">
+      <c r="L127" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M127">
@@ -6987,7 +6990,7 @@
       <c r="N127">
         <v>402</v>
       </c>
-      <c r="O127" t="s">
+      <c r="O127" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P127">
@@ -7019,7 +7022,7 @@
       <c r="H128">
         <v>505</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I128" s="3" t="s">
         <v>56</v>
       </c>
       <c r="J128">
@@ -7028,7 +7031,7 @@
       <c r="K128">
         <v>605</v>
       </c>
-      <c r="L128" t="s">
+      <c r="L128" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M128">
@@ -7037,7 +7040,7 @@
       <c r="N128">
         <v>404</v>
       </c>
-      <c r="O128" t="s">
+      <c r="O128" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P128">
@@ -7051,7 +7054,7 @@
       <c r="B129">
         <v>403</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D129">
@@ -7069,7 +7072,7 @@
       <c r="H129">
         <v>401</v>
       </c>
-      <c r="I129" t="s">
+      <c r="I129" s="2" t="s">
         <v>36</v>
       </c>
       <c r="J129">
@@ -7078,7 +7081,7 @@
       <c r="K129">
         <v>414</v>
       </c>
-      <c r="L129" t="s">
+      <c r="L129" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M129">
@@ -7087,7 +7090,7 @@
       <c r="N129">
         <v>409</v>
       </c>
-      <c r="O129" t="s">
+      <c r="O129" s="2" t="s">
         <v>24</v>
       </c>
       <c r="P129">
@@ -7119,7 +7122,7 @@
       <c r="H130">
         <v>411</v>
       </c>
-      <c r="I130" t="s">
+      <c r="I130" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J130">
@@ -7128,7 +7131,7 @@
       <c r="K130">
         <v>504</v>
       </c>
-      <c r="L130" t="s">
+      <c r="L130" s="3" t="s">
         <v>55</v>
       </c>
       <c r="M130">
@@ -7137,7 +7140,7 @@
       <c r="N130">
         <v>401</v>
       </c>
-      <c r="O130" t="s">
+      <c r="O130" s="3" t="s">
         <v>36</v>
       </c>
       <c r="P130">
@@ -7169,7 +7172,7 @@
       <c r="H131">
         <v>604</v>
       </c>
-      <c r="I131" t="s">
+      <c r="I131" s="3" t="s">
         <v>47</v>
       </c>
       <c r="J131">
@@ -7178,7 +7181,7 @@
       <c r="K131">
         <v>201</v>
       </c>
-      <c r="L131" t="s">
+      <c r="L131" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M131">
@@ -7187,7 +7190,7 @@
       <c r="N131">
         <v>505</v>
       </c>
-      <c r="O131" t="s">
+      <c r="O131" s="3" t="s">
         <v>56</v>
       </c>
       <c r="P131">
@@ -7219,7 +7222,7 @@
       <c r="H132">
         <v>409</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I132" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J132">
@@ -7228,7 +7231,7 @@
       <c r="K132">
         <v>302</v>
       </c>
-      <c r="L132" t="s">
+      <c r="L132" s="3" t="s">
         <v>39</v>
       </c>
       <c r="M132">
@@ -7237,7 +7240,7 @@
       <c r="N132">
         <v>304</v>
       </c>
-      <c r="O132" t="s">
+      <c r="O132" s="2" t="s">
         <v>50</v>
       </c>
       <c r="P132">
@@ -7269,7 +7272,7 @@
       <c r="H133">
         <v>410</v>
       </c>
-      <c r="I133" t="s">
+      <c r="I133" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J133">
@@ -7278,7 +7281,7 @@
       <c r="K133">
         <v>401</v>
       </c>
-      <c r="L133" t="s">
+      <c r="L133" s="1" t="s">
         <v>36</v>
       </c>
       <c r="M133">
@@ -7287,7 +7290,7 @@
       <c r="N133">
         <v>703</v>
       </c>
-      <c r="O133" t="s">
+      <c r="O133" s="3" t="s">
         <v>38</v>
       </c>
       <c r="P133">
@@ -7319,7 +7322,7 @@
       <c r="H134">
         <v>201</v>
       </c>
-      <c r="I134" t="s">
+      <c r="I134" s="3" t="s">
         <v>40</v>
       </c>
       <c r="J134">
@@ -7328,7 +7331,7 @@
       <c r="K134">
         <v>403</v>
       </c>
-      <c r="L134" t="s">
+      <c r="L134" s="3" t="s">
         <v>22</v>
       </c>
       <c r="M134">
@@ -7337,7 +7340,7 @@
       <c r="N134">
         <v>202</v>
       </c>
-      <c r="O134" t="s">
+      <c r="O134" s="3" t="s">
         <v>51</v>
       </c>
       <c r="P134">
@@ -7369,7 +7372,7 @@
       <c r="H135">
         <v>605</v>
       </c>
-      <c r="I135" t="s">
+      <c r="I135" s="3" t="s">
         <v>31</v>
       </c>
       <c r="J135">
@@ -7378,7 +7381,7 @@
       <c r="K135">
         <v>107</v>
       </c>
-      <c r="L135" t="s">
+      <c r="L135" s="3" t="s">
         <v>54</v>
       </c>
       <c r="M135">
@@ -7387,7 +7390,7 @@
       <c r="N135">
         <v>402</v>
       </c>
-      <c r="O135" t="s">
+      <c r="O135" s="3" t="s">
         <v>32</v>
       </c>
       <c r="P135">
@@ -7419,7 +7422,7 @@
       <c r="H136">
         <v>412</v>
       </c>
-      <c r="I136" t="s">
+      <c r="I136" s="3" t="s">
         <v>25</v>
       </c>
       <c r="J136">
@@ -7428,7 +7431,7 @@
       <c r="K136">
         <v>703</v>
       </c>
-      <c r="L136" t="s">
+      <c r="L136" s="3" t="s">
         <v>38</v>
       </c>
       <c r="M136">
@@ -7437,7 +7440,7 @@
       <c r="N136">
         <v>408</v>
       </c>
-      <c r="O136" t="s">
+      <c r="O136" s="1" t="s">
         <v>37</v>
       </c>
       <c r="P136">
@@ -7469,7 +7472,7 @@
       <c r="H137">
         <v>607</v>
       </c>
-      <c r="I137" t="s">
+      <c r="I137" s="3" t="s">
         <v>45</v>
       </c>
       <c r="J137">
@@ -7478,7 +7481,7 @@
       <c r="K137">
         <v>401</v>
       </c>
-      <c r="L137" t="s">
+      <c r="L137" s="3" t="s">
         <v>36</v>
       </c>
       <c r="M137">
@@ -7487,7 +7490,7 @@
       <c r="N137">
         <v>407</v>
       </c>
-      <c r="O137" t="s">
+      <c r="O137" s="3" t="s">
         <v>63</v>
       </c>
       <c r="P137">
@@ -7501,7 +7504,7 @@
       <c r="B138">
         <v>502</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D138">
@@ -7519,7 +7522,7 @@
       <c r="H138">
         <v>403</v>
       </c>
-      <c r="I138" t="s">
+      <c r="I138" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J138">
@@ -7528,7 +7531,7 @@
       <c r="K138">
         <v>201</v>
       </c>
-      <c r="L138" t="s">
+      <c r="L138" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M138">
@@ -7537,7 +7540,7 @@
       <c r="N138">
         <v>603</v>
       </c>
-      <c r="O138" t="s">
+      <c r="O138" s="3" t="s">
         <v>46</v>
       </c>
       <c r="P138">
@@ -7569,7 +7572,7 @@
       <c r="H139">
         <v>607</v>
       </c>
-      <c r="I139" t="s">
+      <c r="I139" s="3" t="s">
         <v>45</v>
       </c>
       <c r="J139">
@@ -7578,7 +7581,7 @@
       <c r="K139">
         <v>507</v>
       </c>
-      <c r="L139" t="s">
+      <c r="L139" s="3" t="s">
         <v>58</v>
       </c>
       <c r="M139">
@@ -7587,7 +7590,7 @@
       <c r="N139">
         <v>605</v>
       </c>
-      <c r="O139" t="s">
+      <c r="O139" s="3" t="s">
         <v>31</v>
       </c>
       <c r="P139">
@@ -7619,7 +7622,7 @@
       <c r="H140">
         <v>203</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I140" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J140">
@@ -7628,7 +7631,7 @@
       <c r="K140">
         <v>605</v>
       </c>
-      <c r="L140" t="s">
+      <c r="L140" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M140">
@@ -7637,7 +7640,7 @@
       <c r="N140">
         <v>607</v>
       </c>
-      <c r="O140" t="s">
+      <c r="O140" s="3" t="s">
         <v>45</v>
       </c>
       <c r="P140">
@@ -7669,7 +7672,7 @@
       <c r="H141">
         <v>203</v>
       </c>
-      <c r="I141" t="s">
+      <c r="I141" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J141">
@@ -7678,7 +7681,7 @@
       <c r="K141">
         <v>109</v>
       </c>
-      <c r="L141" t="s">
+      <c r="L141" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M141">
@@ -7687,7 +7690,7 @@
       <c r="N141">
         <v>701</v>
       </c>
-      <c r="O141" t="s">
+      <c r="O141" s="3" t="s">
         <v>35</v>
       </c>
       <c r="P141">
@@ -7719,7 +7722,7 @@
       <c r="H142">
         <v>402</v>
       </c>
-      <c r="I142" t="s">
+      <c r="I142" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J142">
@@ -7728,7 +7731,7 @@
       <c r="K142">
         <v>605</v>
       </c>
-      <c r="L142" t="s">
+      <c r="L142" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M142">
@@ -7737,7 +7740,7 @@
       <c r="N142">
         <v>104</v>
       </c>
-      <c r="O142" t="s">
+      <c r="O142" s="1" t="s">
         <v>43</v>
       </c>
       <c r="P142">
@@ -7769,7 +7772,7 @@
       <c r="H143">
         <v>103</v>
       </c>
-      <c r="I143" t="s">
+      <c r="I143" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J143">
@@ -7778,7 +7781,7 @@
       <c r="K143">
         <v>106</v>
       </c>
-      <c r="L143" t="s">
+      <c r="L143" s="3" t="s">
         <v>71</v>
       </c>
       <c r="M143">
@@ -7787,7 +7790,7 @@
       <c r="N143">
         <v>302</v>
       </c>
-      <c r="O143" t="s">
+      <c r="O143" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P143">
@@ -7819,7 +7822,7 @@
       <c r="H144">
         <v>109</v>
       </c>
-      <c r="I144" t="s">
+      <c r="I144" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J144">
@@ -7828,7 +7831,7 @@
       <c r="K144">
         <v>105</v>
       </c>
-      <c r="L144" t="s">
+      <c r="L144" s="1" t="s">
         <v>69</v>
       </c>
       <c r="M144">
@@ -7837,7 +7840,7 @@
       <c r="N144">
         <v>103</v>
       </c>
-      <c r="O144" t="s">
+      <c r="O144" s="3" t="s">
         <v>65</v>
       </c>
       <c r="P144">
@@ -7869,7 +7872,7 @@
       <c r="H145">
         <v>106</v>
       </c>
-      <c r="I145" t="s">
+      <c r="I145" s="2" t="s">
         <v>71</v>
       </c>
       <c r="J145">
@@ -7878,7 +7881,7 @@
       <c r="K145">
         <v>302</v>
       </c>
-      <c r="L145" t="s">
+      <c r="L145" s="3" t="s">
         <v>39</v>
       </c>
       <c r="M145">
@@ -7887,7 +7890,7 @@
       <c r="N145">
         <v>304</v>
       </c>
-      <c r="O145" t="s">
+      <c r="O145" s="3" t="s">
         <v>50</v>
       </c>
       <c r="P145">
@@ -7919,7 +7922,7 @@
       <c r="H146">
         <v>104</v>
       </c>
-      <c r="I146" t="s">
+      <c r="I146" s="1" t="s">
         <v>43</v>
       </c>
       <c r="J146">
@@ -7928,7 +7931,7 @@
       <c r="K146">
         <v>102</v>
       </c>
-      <c r="L146" t="s">
+      <c r="L146" s="2" t="s">
         <v>66</v>
       </c>
       <c r="M146">
@@ -7937,7 +7940,7 @@
       <c r="N146">
         <v>412</v>
       </c>
-      <c r="O146" t="s">
+      <c r="O146" s="3" t="s">
         <v>25</v>
       </c>
       <c r="P146">
@@ -7969,7 +7972,7 @@
       <c r="H147">
         <v>305</v>
       </c>
-      <c r="I147" t="s">
+      <c r="I147" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J147">
@@ -7978,7 +7981,7 @@
       <c r="K147">
         <v>103</v>
       </c>
-      <c r="L147" t="s">
+      <c r="L147" s="3" t="s">
         <v>65</v>
       </c>
       <c r="M147">
@@ -7987,7 +7990,7 @@
       <c r="N147">
         <v>108</v>
       </c>
-      <c r="O147" t="s">
+      <c r="O147" s="3" t="s">
         <v>48</v>
       </c>
       <c r="P147">
@@ -8019,7 +8022,7 @@
       <c r="H148">
         <v>103</v>
       </c>
-      <c r="I148" t="s">
+      <c r="I148" s="3" t="s">
         <v>65</v>
       </c>
       <c r="J148">
@@ -8028,7 +8031,7 @@
       <c r="K148">
         <v>704</v>
       </c>
-      <c r="L148" t="s">
+      <c r="L148" s="3" t="s">
         <v>59</v>
       </c>
       <c r="M148">
@@ -8037,7 +8040,7 @@
       <c r="N148">
         <v>414</v>
       </c>
-      <c r="O148" t="s">
+      <c r="O148" s="3" t="s">
         <v>18</v>
       </c>
       <c r="P148">
@@ -8069,7 +8072,7 @@
       <c r="H149">
         <v>104</v>
       </c>
-      <c r="I149" t="s">
+      <c r="I149" s="1" t="s">
         <v>43</v>
       </c>
       <c r="J149">
@@ -8078,7 +8081,7 @@
       <c r="K149">
         <v>103</v>
       </c>
-      <c r="L149" t="s">
+      <c r="L149" s="3" t="s">
         <v>65</v>
       </c>
       <c r="M149">
@@ -8087,7 +8090,7 @@
       <c r="N149">
         <v>303</v>
       </c>
-      <c r="O149" t="s">
+      <c r="O149" s="2" t="s">
         <v>41</v>
       </c>
       <c r="P149">
@@ -8119,7 +8122,7 @@
       <c r="H150">
         <v>103</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I150" s="3" t="s">
         <v>65</v>
       </c>
       <c r="J150">
@@ -8128,7 +8131,7 @@
       <c r="K150">
         <v>106</v>
       </c>
-      <c r="L150" t="s">
+      <c r="L150" s="3" t="s">
         <v>71</v>
       </c>
       <c r="M150">
@@ -8137,7 +8140,7 @@
       <c r="N150">
         <v>101</v>
       </c>
-      <c r="O150" t="s">
+      <c r="O150" s="3" t="s">
         <v>67</v>
       </c>
       <c r="P150">
@@ -8169,7 +8172,7 @@
       <c r="H151">
         <v>103</v>
       </c>
-      <c r="I151" t="s">
+      <c r="I151" s="3" t="s">
         <v>65</v>
       </c>
       <c r="J151">
@@ -8178,7 +8181,7 @@
       <c r="K151">
         <v>416</v>
       </c>
-      <c r="L151" t="s">
+      <c r="L151" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M151">
@@ -8187,7 +8190,7 @@
       <c r="N151">
         <v>501</v>
       </c>
-      <c r="O151" t="s">
+      <c r="O151" s="1" t="s">
         <v>57</v>
       </c>
       <c r="P151">
@@ -8219,7 +8222,7 @@
       <c r="H152">
         <v>602</v>
       </c>
-      <c r="I152" t="s">
+      <c r="I152" s="3" t="s">
         <v>29</v>
       </c>
       <c r="J152">
@@ -8228,7 +8231,7 @@
       <c r="K152">
         <v>303</v>
       </c>
-      <c r="L152" t="s">
+      <c r="L152" s="2" t="s">
         <v>41</v>
       </c>
       <c r="M152">
@@ -8237,7 +8240,7 @@
       <c r="N152">
         <v>601</v>
       </c>
-      <c r="O152" t="s">
+      <c r="O152" s="3" t="s">
         <v>70</v>
       </c>
       <c r="P152">
@@ -8269,7 +8272,7 @@
       <c r="H153">
         <v>103</v>
       </c>
-      <c r="I153" t="s">
+      <c r="I153" s="3" t="s">
         <v>65</v>
       </c>
       <c r="J153">
@@ -8278,7 +8281,7 @@
       <c r="K153">
         <v>411</v>
       </c>
-      <c r="L153" t="s">
+      <c r="L153" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M153">
@@ -8287,7 +8290,7 @@
       <c r="N153">
         <v>704</v>
       </c>
-      <c r="O153" t="s">
+      <c r="O153" s="1" t="s">
         <v>59</v>
       </c>
       <c r="P153">
@@ -8319,7 +8322,7 @@
       <c r="H154">
         <v>103</v>
       </c>
-      <c r="I154" t="s">
+      <c r="I154" s="3" t="s">
         <v>65</v>
       </c>
       <c r="J154">
@@ -8328,7 +8331,7 @@
       <c r="K154">
         <v>304</v>
       </c>
-      <c r="L154" t="s">
+      <c r="L154" s="3" t="s">
         <v>50</v>
       </c>
       <c r="M154">
@@ -8337,7 +8340,7 @@
       <c r="N154">
         <v>302</v>
       </c>
-      <c r="O154" t="s">
+      <c r="O154" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P154">
@@ -8369,7 +8372,7 @@
       <c r="H155">
         <v>104</v>
       </c>
-      <c r="I155" t="s">
+      <c r="I155" s="1" t="s">
         <v>43</v>
       </c>
       <c r="J155">
@@ -8378,7 +8381,7 @@
       <c r="K155">
         <v>412</v>
       </c>
-      <c r="L155" t="s">
+      <c r="L155" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M155">
@@ -8387,7 +8390,7 @@
       <c r="N155">
         <v>109</v>
       </c>
-      <c r="O155" t="s">
+      <c r="O155" s="1" t="s">
         <v>17</v>
       </c>
       <c r="P155">
@@ -8419,7 +8422,7 @@
       <c r="H156">
         <v>103</v>
       </c>
-      <c r="I156" t="s">
+      <c r="I156" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J156">
@@ -8428,7 +8431,7 @@
       <c r="K156">
         <v>106</v>
       </c>
-      <c r="L156" t="s">
+      <c r="L156" s="1" t="s">
         <v>71</v>
       </c>
       <c r="M156">
@@ -8437,7 +8440,7 @@
       <c r="N156">
         <v>303</v>
       </c>
-      <c r="O156" t="s">
+      <c r="O156" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P156">
@@ -8469,7 +8472,7 @@
       <c r="H157">
         <v>507</v>
       </c>
-      <c r="I157" t="s">
+      <c r="I157" s="2" t="s">
         <v>58</v>
       </c>
       <c r="J157">
@@ -8478,7 +8481,7 @@
       <c r="K157">
         <v>506</v>
       </c>
-      <c r="L157" t="s">
+      <c r="L157" s="3" t="s">
         <v>49</v>
       </c>
       <c r="M157">
@@ -8487,7 +8490,7 @@
       <c r="N157">
         <v>410</v>
       </c>
-      <c r="O157" t="s">
+      <c r="O157" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P157">
@@ -8519,7 +8522,7 @@
       <c r="H158">
         <v>109</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I158" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J158">
@@ -8528,7 +8531,7 @@
       <c r="K158">
         <v>301</v>
       </c>
-      <c r="L158" t="s">
+      <c r="L158" s="3" t="s">
         <v>27</v>
       </c>
       <c r="M158">
@@ -8537,7 +8540,7 @@
       <c r="N158">
         <v>414</v>
       </c>
-      <c r="O158" t="s">
+      <c r="O158" s="3" t="s">
         <v>18</v>
       </c>
       <c r="P158">
@@ -8569,7 +8572,7 @@
       <c r="H159">
         <v>305</v>
       </c>
-      <c r="I159" t="s">
+      <c r="I159" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J159">
@@ -8578,7 +8581,7 @@
       <c r="K159">
         <v>108</v>
       </c>
-      <c r="L159" t="s">
+      <c r="L159" s="3" t="s">
         <v>48</v>
       </c>
       <c r="M159">
@@ -8587,7 +8590,7 @@
       <c r="N159">
         <v>506</v>
       </c>
-      <c r="O159" t="s">
+      <c r="O159" s="3" t="s">
         <v>49</v>
       </c>
       <c r="P159">
@@ -8619,7 +8622,7 @@
       <c r="H160">
         <v>303</v>
       </c>
-      <c r="I160" t="s">
+      <c r="I160" s="3" t="s">
         <v>41</v>
       </c>
       <c r="J160">
@@ -8628,7 +8631,7 @@
       <c r="K160">
         <v>415</v>
       </c>
-      <c r="L160" t="s">
+      <c r="L160" s="3" t="s">
         <v>53</v>
       </c>
       <c r="M160">
@@ -8637,7 +8640,7 @@
       <c r="N160">
         <v>404</v>
       </c>
-      <c r="O160" t="s">
+      <c r="O160" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P160">
@@ -8669,7 +8672,7 @@
       <c r="H161">
         <v>502</v>
       </c>
-      <c r="I161" t="s">
+      <c r="I161" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J161">
@@ -8678,7 +8681,7 @@
       <c r="K161">
         <v>415</v>
       </c>
-      <c r="L161" t="s">
+      <c r="L161" s="3" t="s">
         <v>53</v>
       </c>
       <c r="M161">
@@ -8687,7 +8690,7 @@
       <c r="N161">
         <v>411</v>
       </c>
-      <c r="O161" t="s">
+      <c r="O161" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P161">
@@ -8701,7 +8704,7 @@
       <c r="B162">
         <v>107</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D162">
@@ -8719,7 +8722,7 @@
       <c r="H162">
         <v>109</v>
       </c>
-      <c r="I162" t="s">
+      <c r="I162" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J162">
@@ -8728,7 +8731,7 @@
       <c r="K162">
         <v>202</v>
       </c>
-      <c r="L162" t="s">
+      <c r="L162" s="3" t="s">
         <v>51</v>
       </c>
       <c r="M162">
@@ -8737,7 +8740,7 @@
       <c r="N162">
         <v>507</v>
       </c>
-      <c r="O162" t="s">
+      <c r="O162" s="3" t="s">
         <v>58</v>
       </c>
       <c r="P162">
@@ -8769,7 +8772,7 @@
       <c r="H163">
         <v>303</v>
       </c>
-      <c r="I163" t="s">
+      <c r="I163" s="3" t="s">
         <v>41</v>
       </c>
       <c r="J163">
@@ -8778,7 +8781,7 @@
       <c r="K163">
         <v>412</v>
       </c>
-      <c r="L163" t="s">
+      <c r="L163" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M163">
@@ -8787,7 +8790,7 @@
       <c r="N163">
         <v>507</v>
       </c>
-      <c r="O163" t="s">
+      <c r="O163" s="3" t="s">
         <v>58</v>
       </c>
       <c r="P163">
@@ -8819,7 +8822,7 @@
       <c r="H164">
         <v>704</v>
       </c>
-      <c r="I164" t="s">
+      <c r="I164" s="3" t="s">
         <v>59</v>
       </c>
       <c r="J164">
@@ -8828,7 +8831,7 @@
       <c r="K164">
         <v>407</v>
       </c>
-      <c r="L164" t="s">
+      <c r="L164" s="3" t="s">
         <v>63</v>
       </c>
       <c r="M164">
@@ -8837,7 +8840,7 @@
       <c r="N164">
         <v>401</v>
       </c>
-      <c r="O164" t="s">
+      <c r="O164" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P164">
@@ -8869,7 +8872,7 @@
       <c r="H165">
         <v>416</v>
       </c>
-      <c r="I165" t="s">
+      <c r="I165" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J165">
@@ -8878,7 +8881,7 @@
       <c r="K165">
         <v>404</v>
       </c>
-      <c r="L165" t="s">
+      <c r="L165" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M165">
@@ -8887,7 +8890,7 @@
       <c r="N165">
         <v>403</v>
       </c>
-      <c r="O165" t="s">
+      <c r="O165" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P165">
@@ -8919,7 +8922,7 @@
       <c r="H166">
         <v>505</v>
       </c>
-      <c r="I166" t="s">
+      <c r="I166" s="3" t="s">
         <v>56</v>
       </c>
       <c r="J166">
@@ -8928,7 +8931,7 @@
       <c r="K166">
         <v>605</v>
       </c>
-      <c r="L166" t="s">
+      <c r="L166" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M166">
@@ -8937,7 +8940,7 @@
       <c r="N166">
         <v>704</v>
       </c>
-      <c r="O166" t="s">
+      <c r="O166" s="2" t="s">
         <v>59</v>
       </c>
       <c r="P166">
@@ -8969,7 +8972,7 @@
       <c r="H167">
         <v>507</v>
       </c>
-      <c r="I167" t="s">
+      <c r="I167" s="3" t="s">
         <v>58</v>
       </c>
       <c r="J167">
@@ -8978,7 +8981,7 @@
       <c r="K167">
         <v>703</v>
       </c>
-      <c r="L167" t="s">
+      <c r="L167" s="3" t="s">
         <v>38</v>
       </c>
       <c r="M167">
@@ -8987,7 +8990,7 @@
       <c r="N167">
         <v>506</v>
       </c>
-      <c r="O167" t="s">
+      <c r="O167" s="3" t="s">
         <v>49</v>
       </c>
       <c r="P167">
@@ -9019,7 +9022,7 @@
       <c r="H168">
         <v>507</v>
       </c>
-      <c r="I168" t="s">
+      <c r="I168" s="3" t="s">
         <v>58</v>
       </c>
       <c r="J168">
@@ -9028,7 +9031,7 @@
       <c r="K168">
         <v>506</v>
       </c>
-      <c r="L168" t="s">
+      <c r="L168" s="3" t="s">
         <v>49</v>
       </c>
       <c r="M168">
@@ -9037,7 +9040,7 @@
       <c r="N168">
         <v>410</v>
       </c>
-      <c r="O168" t="s">
+      <c r="O168" s="1" t="s">
         <v>34</v>
       </c>
       <c r="P168">
@@ -9069,7 +9072,7 @@
       <c r="H169">
         <v>404</v>
       </c>
-      <c r="I169" t="s">
+      <c r="I169" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J169">
@@ -9078,7 +9081,7 @@
       <c r="K169">
         <v>407</v>
       </c>
-      <c r="L169" t="s">
+      <c r="L169" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M169">
@@ -9087,7 +9090,7 @@
       <c r="N169">
         <v>302</v>
       </c>
-      <c r="O169" t="s">
+      <c r="O169" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P169">
@@ -9119,7 +9122,7 @@
       <c r="H170">
         <v>407</v>
       </c>
-      <c r="I170" t="s">
+      <c r="I170" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J170">
@@ -9128,7 +9131,7 @@
       <c r="K170">
         <v>402</v>
       </c>
-      <c r="L170" t="s">
+      <c r="L170" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M170">
@@ -9137,7 +9140,7 @@
       <c r="N170">
         <v>204</v>
       </c>
-      <c r="O170" t="s">
+      <c r="O170" s="3" t="s">
         <v>60</v>
       </c>
       <c r="P170">
@@ -9160,7 +9163,7 @@
       <c r="E171">
         <v>406</v>
       </c>
-      <c r="F171" s="2" t="s">
+      <c r="F171" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G171">
@@ -9169,7 +9172,7 @@
       <c r="H171">
         <v>403</v>
       </c>
-      <c r="I171" t="s">
+      <c r="I171" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J171">
@@ -9178,7 +9181,7 @@
       <c r="K171">
         <v>401</v>
       </c>
-      <c r="L171" t="s">
+      <c r="L171" s="2" t="s">
         <v>36</v>
       </c>
       <c r="M171">
@@ -9187,7 +9190,7 @@
       <c r="N171">
         <v>410</v>
       </c>
-      <c r="O171" t="s">
+      <c r="O171" s="1" t="s">
         <v>34</v>
       </c>
       <c r="P171">
@@ -9219,7 +9222,7 @@
       <c r="H172">
         <v>416</v>
       </c>
-      <c r="I172" t="s">
+      <c r="I172" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J172">
@@ -9228,7 +9231,7 @@
       <c r="K172">
         <v>401</v>
       </c>
-      <c r="L172" t="s">
+      <c r="L172" s="1" t="s">
         <v>36</v>
       </c>
       <c r="M172">
@@ -9237,7 +9240,7 @@
       <c r="N172">
         <v>505</v>
       </c>
-      <c r="O172" t="s">
+      <c r="O172" s="3" t="s">
         <v>56</v>
       </c>
       <c r="P172">
@@ -9269,7 +9272,7 @@
       <c r="H173">
         <v>607</v>
       </c>
-      <c r="I173" t="s">
+      <c r="I173" s="3" t="s">
         <v>45</v>
       </c>
       <c r="J173">
@@ -9278,7 +9281,7 @@
       <c r="K173">
         <v>303</v>
       </c>
-      <c r="L173" t="s">
+      <c r="L173" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M173">
@@ -9287,7 +9290,7 @@
       <c r="N173">
         <v>405</v>
       </c>
-      <c r="O173" t="s">
+      <c r="O173" s="3" t="s">
         <v>61</v>
       </c>
       <c r="P173">
@@ -9319,7 +9322,7 @@
       <c r="H174">
         <v>411</v>
       </c>
-      <c r="I174" t="s">
+      <c r="I174" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J174">
@@ -9328,7 +9331,7 @@
       <c r="K174">
         <v>605</v>
       </c>
-      <c r="L174" t="s">
+      <c r="L174" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M174">
@@ -9337,7 +9340,7 @@
       <c r="N174">
         <v>607</v>
       </c>
-      <c r="O174" t="s">
+      <c r="O174" s="3" t="s">
         <v>45</v>
       </c>
       <c r="P174">
@@ -9369,7 +9372,7 @@
       <c r="H175">
         <v>412</v>
       </c>
-      <c r="I175" t="s">
+      <c r="I175" s="3" t="s">
         <v>25</v>
       </c>
       <c r="J175">
@@ -9378,7 +9381,7 @@
       <c r="K175">
         <v>410</v>
       </c>
-      <c r="L175" t="s">
+      <c r="L175" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M175">
@@ -9387,7 +9390,7 @@
       <c r="N175">
         <v>405</v>
       </c>
-      <c r="O175" t="s">
+      <c r="O175" s="3" t="s">
         <v>61</v>
       </c>
       <c r="P175">
@@ -9419,7 +9422,7 @@
       <c r="H176">
         <v>702</v>
       </c>
-      <c r="I176" t="s">
+      <c r="I176" s="3" t="s">
         <v>62</v>
       </c>
       <c r="J176">
@@ -9428,7 +9431,7 @@
       <c r="K176">
         <v>407</v>
       </c>
-      <c r="L176" t="s">
+      <c r="L176" s="1" t="s">
         <v>63</v>
       </c>
       <c r="M176">
@@ -9437,7 +9440,7 @@
       <c r="N176">
         <v>405</v>
       </c>
-      <c r="O176" t="s">
+      <c r="O176" s="2" t="s">
         <v>61</v>
       </c>
       <c r="P176">
@@ -9469,7 +9472,7 @@
       <c r="H177">
         <v>305</v>
       </c>
-      <c r="I177" t="s">
+      <c r="I177" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J177">
@@ -9478,7 +9481,7 @@
       <c r="K177">
         <v>101</v>
       </c>
-      <c r="L177" t="s">
+      <c r="L177" s="3" t="s">
         <v>67</v>
       </c>
       <c r="M177">
@@ -9487,7 +9490,7 @@
       <c r="N177">
         <v>410</v>
       </c>
-      <c r="O177" t="s">
+      <c r="O177" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P177">
@@ -9519,7 +9522,7 @@
       <c r="H178">
         <v>101</v>
       </c>
-      <c r="I178" t="s">
+      <c r="I178" s="2" t="s">
         <v>67</v>
       </c>
       <c r="J178">
@@ -9528,7 +9531,7 @@
       <c r="K178">
         <v>409</v>
       </c>
-      <c r="L178" t="s">
+      <c r="L178" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M178">
@@ -9537,7 +9540,7 @@
       <c r="N178">
         <v>507</v>
       </c>
-      <c r="O178" t="s">
+      <c r="O178" s="3" t="s">
         <v>58</v>
       </c>
       <c r="P178">
@@ -9569,7 +9572,7 @@
       <c r="H179">
         <v>202</v>
       </c>
-      <c r="I179" t="s">
+      <c r="I179" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J179">
@@ -9578,7 +9581,7 @@
       <c r="K179">
         <v>605</v>
       </c>
-      <c r="L179" t="s">
+      <c r="L179" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M179">
@@ -9587,7 +9590,7 @@
       <c r="N179">
         <v>501</v>
       </c>
-      <c r="O179" t="s">
+      <c r="O179" s="1" t="s">
         <v>57</v>
       </c>
       <c r="P179">
@@ -9619,7 +9622,7 @@
       <c r="H180">
         <v>110</v>
       </c>
-      <c r="I180" t="s">
+      <c r="I180" s="3" t="s">
         <v>28</v>
       </c>
       <c r="J180">
@@ -9628,7 +9631,7 @@
       <c r="K180">
         <v>407</v>
       </c>
-      <c r="L180" t="s">
+      <c r="L180" s="3" t="s">
         <v>63</v>
       </c>
       <c r="M180">
@@ -9637,7 +9640,7 @@
       <c r="N180">
         <v>702</v>
       </c>
-      <c r="O180" t="s">
+      <c r="O180" s="3" t="s">
         <v>62</v>
       </c>
       <c r="P180">
@@ -9669,7 +9672,7 @@
       <c r="H181">
         <v>416</v>
       </c>
-      <c r="I181" t="s">
+      <c r="I181" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J181">
@@ -9678,7 +9681,7 @@
       <c r="K181">
         <v>301</v>
       </c>
-      <c r="L181" t="s">
+      <c r="L181" s="3" t="s">
         <v>27</v>
       </c>
       <c r="M181">
@@ -9687,7 +9690,7 @@
       <c r="N181">
         <v>414</v>
       </c>
-      <c r="O181" t="s">
+      <c r="O181" s="3" t="s">
         <v>18</v>
       </c>
       <c r="P181">
@@ -9719,7 +9722,7 @@
       <c r="H182">
         <v>608</v>
       </c>
-      <c r="I182" t="s">
+      <c r="I182" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J182">
@@ -9728,7 +9731,7 @@
       <c r="K182">
         <v>505</v>
       </c>
-      <c r="L182" t="s">
+      <c r="L182" s="3" t="s">
         <v>56</v>
       </c>
       <c r="M182">
@@ -9737,7 +9740,7 @@
       <c r="N182">
         <v>701</v>
       </c>
-      <c r="O182" t="s">
+      <c r="O182" s="3" t="s">
         <v>35</v>
       </c>
       <c r="P182">
@@ -9769,7 +9772,7 @@
       <c r="H183">
         <v>101</v>
       </c>
-      <c r="I183" t="s">
+      <c r="I183" s="1" t="s">
         <v>67</v>
       </c>
       <c r="J183">
@@ -9778,7 +9781,7 @@
       <c r="K183">
         <v>408</v>
       </c>
-      <c r="L183" t="s">
+      <c r="L183" s="2" t="s">
         <v>37</v>
       </c>
       <c r="M183">
@@ -9787,7 +9790,7 @@
       <c r="N183">
         <v>107</v>
       </c>
-      <c r="O183" t="s">
+      <c r="O183" s="2" t="s">
         <v>54</v>
       </c>
       <c r="P183">
@@ -9819,7 +9822,7 @@
       <c r="H184">
         <v>107</v>
       </c>
-      <c r="I184" t="s">
+      <c r="I184" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J184">
@@ -9828,7 +9831,7 @@
       <c r="K184">
         <v>605</v>
       </c>
-      <c r="L184" t="s">
+      <c r="L184" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M184">
@@ -9837,7 +9840,7 @@
       <c r="N184">
         <v>104</v>
       </c>
-      <c r="O184" t="s">
+      <c r="O184" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P184">
@@ -9869,7 +9872,7 @@
       <c r="H185">
         <v>109</v>
       </c>
-      <c r="I185" t="s">
+      <c r="I185" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J185">
@@ -9878,7 +9881,7 @@
       <c r="K185">
         <v>601</v>
       </c>
-      <c r="L185" t="s">
+      <c r="L185" s="3" t="s">
         <v>70</v>
       </c>
       <c r="M185">
@@ -9887,7 +9890,7 @@
       <c r="N185">
         <v>606</v>
       </c>
-      <c r="O185" t="s">
+      <c r="O185" s="3" t="s">
         <v>23</v>
       </c>
       <c r="P185">
@@ -9919,7 +9922,7 @@
       <c r="H186">
         <v>202</v>
       </c>
-      <c r="I186" t="s">
+      <c r="I186" s="2" t="s">
         <v>51</v>
       </c>
       <c r="J186">
@@ -9928,7 +9931,7 @@
       <c r="K186">
         <v>602</v>
       </c>
-      <c r="L186" t="s">
+      <c r="L186" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M186">
@@ -9937,7 +9940,7 @@
       <c r="N186">
         <v>601</v>
       </c>
-      <c r="O186" t="s">
+      <c r="O186" s="3" t="s">
         <v>70</v>
       </c>
       <c r="P186">
@@ -9969,7 +9972,7 @@
       <c r="H187">
         <v>101</v>
       </c>
-      <c r="I187" t="s">
+      <c r="I187" s="2" t="s">
         <v>67</v>
       </c>
       <c r="J187">
@@ -9978,7 +9981,7 @@
       <c r="K187">
         <v>110</v>
       </c>
-      <c r="L187" t="s">
+      <c r="L187" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M187">
@@ -9987,7 +9990,7 @@
       <c r="N187">
         <v>407</v>
       </c>
-      <c r="O187" t="s">
+      <c r="O187" s="3" t="s">
         <v>63</v>
       </c>
       <c r="P187">
@@ -10019,7 +10022,7 @@
       <c r="H188">
         <v>404</v>
       </c>
-      <c r="I188" t="s">
+      <c r="I188" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J188">
@@ -10028,7 +10031,7 @@
       <c r="K188">
         <v>203</v>
       </c>
-      <c r="L188" t="s">
+      <c r="L188" s="3" t="s">
         <v>20</v>
       </c>
       <c r="M188">
@@ -10037,7 +10040,7 @@
       <c r="N188">
         <v>102</v>
       </c>
-      <c r="O188" t="s">
+      <c r="O188" s="3" t="s">
         <v>66</v>
       </c>
       <c r="P188">
@@ -10069,7 +10072,7 @@
       <c r="H189">
         <v>302</v>
       </c>
-      <c r="I189" t="s">
+      <c r="I189" s="1" t="s">
         <v>39</v>
       </c>
       <c r="J189">
@@ -10078,7 +10081,7 @@
       <c r="K189">
         <v>405</v>
       </c>
-      <c r="L189" t="s">
+      <c r="L189" s="3" t="s">
         <v>61</v>
       </c>
       <c r="M189">
@@ -10087,7 +10090,7 @@
       <c r="N189">
         <v>303</v>
       </c>
-      <c r="O189" t="s">
+      <c r="O189" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P189">
@@ -10119,7 +10122,7 @@
       <c r="H190">
         <v>301</v>
       </c>
-      <c r="I190" t="s">
+      <c r="I190" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J190">
@@ -10128,7 +10131,7 @@
       <c r="K190">
         <v>405</v>
       </c>
-      <c r="L190" t="s">
+      <c r="L190" s="3" t="s">
         <v>61</v>
       </c>
       <c r="M190">
@@ -10137,7 +10140,7 @@
       <c r="N190">
         <v>303</v>
       </c>
-      <c r="O190" t="s">
+      <c r="O190" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P190">
@@ -10169,7 +10172,7 @@
       <c r="H191">
         <v>305</v>
       </c>
-      <c r="I191" t="s">
+      <c r="I191" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J191">
@@ -10178,7 +10181,7 @@
       <c r="K191">
         <v>304</v>
       </c>
-      <c r="L191" t="s">
+      <c r="L191" s="3" t="s">
         <v>50</v>
       </c>
       <c r="M191">
@@ -10187,7 +10190,7 @@
       <c r="N191">
         <v>413</v>
       </c>
-      <c r="O191" t="s">
+      <c r="O191" s="3" t="s">
         <v>52</v>
       </c>
       <c r="P191">
@@ -10219,7 +10222,7 @@
       <c r="H192">
         <v>704</v>
       </c>
-      <c r="I192" t="s">
+      <c r="I192" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J192">
@@ -10228,7 +10231,7 @@
       <c r="K192">
         <v>201</v>
       </c>
-      <c r="L192" t="s">
+      <c r="L192" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M192">
@@ -10237,7 +10240,7 @@
       <c r="N192">
         <v>403</v>
       </c>
-      <c r="O192" t="s">
+      <c r="O192" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P192">
@@ -10269,7 +10272,7 @@
       <c r="H193">
         <v>701</v>
       </c>
-      <c r="I193" t="s">
+      <c r="I193" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J193">
@@ -10278,7 +10281,7 @@
       <c r="K193">
         <v>305</v>
       </c>
-      <c r="L193" t="s">
+      <c r="L193" s="3" t="s">
         <v>19</v>
       </c>
       <c r="M193">
@@ -10287,7 +10290,7 @@
       <c r="N193">
         <v>302</v>
       </c>
-      <c r="O193" t="s">
+      <c r="O193" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P193">
@@ -10319,7 +10322,7 @@
       <c r="H194">
         <v>413</v>
       </c>
-      <c r="I194" t="s">
+      <c r="I194" s="2" t="s">
         <v>52</v>
       </c>
       <c r="J194">
@@ -10328,7 +10331,7 @@
       <c r="K194">
         <v>101</v>
       </c>
-      <c r="L194" t="s">
+      <c r="L194" s="3" t="s">
         <v>67</v>
       </c>
       <c r="M194">
@@ -10337,7 +10340,7 @@
       <c r="N194">
         <v>305</v>
       </c>
-      <c r="O194" t="s">
+      <c r="O194" s="2" t="s">
         <v>19</v>
       </c>
       <c r="P194">
@@ -10369,7 +10372,7 @@
       <c r="H195">
         <v>703</v>
       </c>
-      <c r="I195" t="s">
+      <c r="I195" s="3" t="s">
         <v>38</v>
       </c>
       <c r="J195">
@@ -10378,7 +10381,7 @@
       <c r="K195">
         <v>109</v>
       </c>
-      <c r="L195" t="s">
+      <c r="L195" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M195">
@@ -10387,7 +10390,7 @@
       <c r="N195">
         <v>203</v>
       </c>
-      <c r="O195" t="s">
+      <c r="O195" s="3" t="s">
         <v>20</v>
       </c>
       <c r="P195">
@@ -10419,7 +10422,7 @@
       <c r="H196">
         <v>302</v>
       </c>
-      <c r="I196" t="s">
+      <c r="I196" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J196">
@@ -10428,7 +10431,7 @@
       <c r="K196">
         <v>404</v>
       </c>
-      <c r="L196" t="s">
+      <c r="L196" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M196">
@@ -10437,7 +10440,7 @@
       <c r="N196">
         <v>405</v>
       </c>
-      <c r="O196" t="s">
+      <c r="O196" s="1" t="s">
         <v>61</v>
       </c>
       <c r="P196">
@@ -10469,7 +10472,7 @@
       <c r="H197">
         <v>302</v>
       </c>
-      <c r="I197" t="s">
+      <c r="I197" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J197">
@@ -10478,7 +10481,7 @@
       <c r="K197">
         <v>412</v>
       </c>
-      <c r="L197" t="s">
+      <c r="L197" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M197">
@@ -10487,7 +10490,7 @@
       <c r="N197">
         <v>303</v>
       </c>
-      <c r="O197" t="s">
+      <c r="O197" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P197">
@@ -10519,7 +10522,7 @@
       <c r="H198">
         <v>605</v>
       </c>
-      <c r="I198" t="s">
+      <c r="I198" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J198">
@@ -10528,7 +10531,7 @@
       <c r="K198">
         <v>608</v>
       </c>
-      <c r="L198" t="s">
+      <c r="L198" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M198">
@@ -10537,7 +10540,7 @@
       <c r="N198">
         <v>401</v>
       </c>
-      <c r="O198" t="s">
+      <c r="O198" s="3" t="s">
         <v>36</v>
       </c>
       <c r="P198">
@@ -10569,7 +10572,7 @@
       <c r="H199">
         <v>409</v>
       </c>
-      <c r="I199" t="s">
+      <c r="I199" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J199">
@@ -10578,7 +10581,7 @@
       <c r="K199">
         <v>302</v>
       </c>
-      <c r="L199" t="s">
+      <c r="L199" s="3" t="s">
         <v>39</v>
       </c>
       <c r="M199">
@@ -10587,7 +10590,7 @@
       <c r="N199">
         <v>411</v>
       </c>
-      <c r="O199" t="s">
+      <c r="O199" s="3" t="s">
         <v>30</v>
       </c>
       <c r="P199">
@@ -10619,7 +10622,7 @@
       <c r="H200">
         <v>404</v>
       </c>
-      <c r="I200" t="s">
+      <c r="I200" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J200">
@@ -10628,7 +10631,7 @@
       <c r="K200">
         <v>204</v>
       </c>
-      <c r="L200" t="s">
+      <c r="L200" s="3" t="s">
         <v>60</v>
       </c>
       <c r="M200">
@@ -10637,7 +10640,7 @@
       <c r="N200">
         <v>305</v>
       </c>
-      <c r="O200" t="s">
+      <c r="O200" s="1" t="s">
         <v>19</v>
       </c>
       <c r="P200">
@@ -10669,7 +10672,7 @@
       <c r="H201">
         <v>202</v>
       </c>
-      <c r="I201" t="s">
+      <c r="I201" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J201">
@@ -10678,7 +10681,7 @@
       <c r="K201">
         <v>103</v>
       </c>
-      <c r="L201" t="s">
+      <c r="L201" s="3" t="s">
         <v>65</v>
       </c>
       <c r="M201">
@@ -10687,7 +10690,7 @@
       <c r="N201">
         <v>305</v>
       </c>
-      <c r="O201" t="s">
+      <c r="O201" s="1" t="s">
         <v>19</v>
       </c>
       <c r="P201">
@@ -10719,7 +10722,7 @@
       <c r="H202">
         <v>302</v>
       </c>
-      <c r="I202" t="s">
+      <c r="I202" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J202">
@@ -10728,7 +10731,7 @@
       <c r="K202">
         <v>405</v>
       </c>
-      <c r="L202" t="s">
+      <c r="L202" s="3" t="s">
         <v>61</v>
       </c>
       <c r="M202">
@@ -10737,7 +10740,7 @@
       <c r="N202">
         <v>303</v>
       </c>
-      <c r="O202" t="s">
+      <c r="O202" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P202">
@@ -10769,7 +10772,7 @@
       <c r="H203">
         <v>302</v>
       </c>
-      <c r="I203" t="s">
+      <c r="I203" s="3" t="s">
         <v>39</v>
       </c>
       <c r="J203">
@@ -10778,7 +10781,7 @@
       <c r="K203">
         <v>608</v>
       </c>
-      <c r="L203" t="s">
+      <c r="L203" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M203">
@@ -10787,7 +10790,7 @@
       <c r="N203">
         <v>602</v>
       </c>
-      <c r="O203" t="s">
+      <c r="O203" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P203">
@@ -10819,7 +10822,7 @@
       <c r="H204">
         <v>414</v>
       </c>
-      <c r="I204" t="s">
+      <c r="I204" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J204">
@@ -10828,7 +10831,7 @@
       <c r="K204">
         <v>412</v>
       </c>
-      <c r="L204" t="s">
+      <c r="L204" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M204">
@@ -10837,7 +10840,7 @@
       <c r="N204">
         <v>305</v>
       </c>
-      <c r="O204" t="s">
+      <c r="O204" s="3" t="s">
         <v>19</v>
       </c>
       <c r="P204">
@@ -10869,7 +10872,7 @@
       <c r="H205">
         <v>601</v>
       </c>
-      <c r="I205" t="s">
+      <c r="I205" s="1" t="s">
         <v>70</v>
       </c>
       <c r="J205">
@@ -10878,7 +10881,7 @@
       <c r="K205">
         <v>505</v>
       </c>
-      <c r="L205" t="s">
+      <c r="L205" s="3" t="s">
         <v>56</v>
       </c>
       <c r="M205">
@@ -10887,7 +10890,7 @@
       <c r="N205">
         <v>102</v>
       </c>
-      <c r="O205" t="s">
+      <c r="O205" s="3" t="s">
         <v>66</v>
       </c>
       <c r="P205">
@@ -10919,7 +10922,7 @@
       <c r="H206">
         <v>404</v>
       </c>
-      <c r="I206" t="s">
+      <c r="I206" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J206">
@@ -10928,7 +10931,7 @@
       <c r="K206">
         <v>303</v>
       </c>
-      <c r="L206" t="s">
+      <c r="L206" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M206">
@@ -10937,7 +10940,7 @@
       <c r="N206">
         <v>405</v>
       </c>
-      <c r="O206" t="s">
+      <c r="O206" s="3" t="s">
         <v>61</v>
       </c>
       <c r="P206">
@@ -10969,7 +10972,7 @@
       <c r="H207">
         <v>701</v>
       </c>
-      <c r="I207" t="s">
+      <c r="I207" s="3" t="s">
         <v>35</v>
       </c>
       <c r="J207">
@@ -10978,7 +10981,7 @@
       <c r="K207">
         <v>305</v>
       </c>
-      <c r="L207" t="s">
+      <c r="L207" s="3" t="s">
         <v>19</v>
       </c>
       <c r="M207">
@@ -10987,7 +10990,7 @@
       <c r="N207">
         <v>411</v>
       </c>
-      <c r="O207" t="s">
+      <c r="O207" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P207">
@@ -11019,7 +11022,7 @@
       <c r="H208">
         <v>607</v>
       </c>
-      <c r="I208" t="s">
+      <c r="I208" s="3" t="s">
         <v>45</v>
       </c>
       <c r="J208">
@@ -11028,7 +11031,7 @@
       <c r="K208">
         <v>501</v>
       </c>
-      <c r="L208" t="s">
+      <c r="L208" s="1" t="s">
         <v>57</v>
       </c>
       <c r="M208">
@@ -11037,7 +11040,7 @@
       <c r="N208">
         <v>608</v>
       </c>
-      <c r="O208" t="s">
+      <c r="O208" s="3" t="s">
         <v>33</v>
       </c>
       <c r="P208">
@@ -11069,7 +11072,7 @@
       <c r="H209">
         <v>101</v>
       </c>
-      <c r="I209" t="s">
+      <c r="I209" s="3" t="s">
         <v>67</v>
       </c>
       <c r="J209">
@@ -11078,7 +11081,7 @@
       <c r="K209">
         <v>606</v>
       </c>
-      <c r="L209" t="s">
+      <c r="L209" s="3" t="s">
         <v>23</v>
       </c>
       <c r="M209">
@@ -11087,7 +11090,7 @@
       <c r="N209">
         <v>402</v>
       </c>
-      <c r="O209" t="s">
+      <c r="O209" s="3" t="s">
         <v>32</v>
       </c>
       <c r="P209">
@@ -11119,7 +11122,7 @@
       <c r="H210">
         <v>409</v>
       </c>
-      <c r="I210" t="s">
+      <c r="I210" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J210">
@@ -11128,7 +11131,7 @@
       <c r="K210">
         <v>411</v>
       </c>
-      <c r="L210" t="s">
+      <c r="L210" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M210">
@@ -11137,7 +11140,7 @@
       <c r="N210">
         <v>606</v>
       </c>
-      <c r="O210" t="s">
+      <c r="O210" s="3" t="s">
         <v>23</v>
       </c>
       <c r="P210">
@@ -11169,7 +11172,7 @@
       <c r="H211">
         <v>412</v>
       </c>
-      <c r="I211" t="s">
+      <c r="I211" s="3" t="s">
         <v>25</v>
       </c>
       <c r="J211">
@@ -11178,7 +11181,7 @@
       <c r="K211">
         <v>201</v>
       </c>
-      <c r="L211" t="s">
+      <c r="L211" s="1" t="s">
         <v>40</v>
       </c>
       <c r="M211">
@@ -11187,7 +11190,7 @@
       <c r="N211">
         <v>411</v>
       </c>
-      <c r="O211" t="s">
+      <c r="O211" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P211">
@@ -11219,7 +11222,7 @@
       <c r="H212">
         <v>203</v>
       </c>
-      <c r="I212" t="s">
+      <c r="I212" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J212">
@@ -11228,7 +11231,7 @@
       <c r="K212">
         <v>102</v>
       </c>
-      <c r="L212" t="s">
+      <c r="L212" s="1" t="s">
         <v>66</v>
       </c>
       <c r="M212">
@@ -11237,7 +11240,7 @@
       <c r="N212">
         <v>101</v>
       </c>
-      <c r="O212" t="s">
+      <c r="O212" s="1" t="s">
         <v>67</v>
       </c>
       <c r="P212">
@@ -11269,7 +11272,7 @@
       <c r="H213">
         <v>109</v>
       </c>
-      <c r="I213" t="s">
+      <c r="I213" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J213">
@@ -11278,7 +11281,7 @@
       <c r="K213">
         <v>203</v>
       </c>
-      <c r="L213" t="s">
+      <c r="L213" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M213">
@@ -11287,7 +11290,7 @@
       <c r="N213">
         <v>606</v>
       </c>
-      <c r="O213" t="s">
+      <c r="O213" s="3" t="s">
         <v>23</v>
       </c>
       <c r="P213">
@@ -11319,7 +11322,7 @@
       <c r="H214">
         <v>502</v>
       </c>
-      <c r="I214" t="s">
+      <c r="I214" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J214">
@@ -11328,7 +11331,7 @@
       <c r="K214">
         <v>607</v>
       </c>
-      <c r="L214" t="s">
+      <c r="L214" s="2" t="s">
         <v>45</v>
       </c>
       <c r="M214">
@@ -11337,7 +11340,7 @@
       <c r="N214">
         <v>109</v>
       </c>
-      <c r="O214" t="s">
+      <c r="O214" s="3" t="s">
         <v>17</v>
       </c>
       <c r="P214">
